--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_11_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-595049.5246871117</v>
+        <v>-596905.9083481038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3038008.087518418</v>
+        <v>3038008.087518415</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -704,7 +704,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,25 +856,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.876045741711437</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.33498035419292</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,61 +1063,61 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="S7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.58387696184059</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>30.33058396382594</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>39.58387696184059</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,16 +1333,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="R10" t="n">
-        <v>24.5704967621155</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.7158786777973</v>
+        <v>174.7980224310975</v>
       </c>
       <c r="C11" t="n">
-        <v>343.2549287853242</v>
+        <v>343.2549287853243</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>359.9124070865785</v>
       </c>
       <c r="F11" t="n">
-        <v>384.8580827560281</v>
+        <v>384.8580827560282</v>
       </c>
       <c r="G11" t="n">
-        <v>117.0869327873612</v>
+        <v>390.6703562859439</v>
       </c>
       <c r="H11" t="n">
-        <v>290.6819282937578</v>
+        <v>290.6819282937579</v>
       </c>
       <c r="I11" t="n">
-        <v>87.6655672518816</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.4260508766241</v>
+        <v>127.4260508766242</v>
       </c>
       <c r="T11" t="n">
         <v>189.6332707174919</v>
       </c>
       <c r="U11" t="n">
-        <v>229.1185364626725</v>
+        <v>229.1185364626726</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>327.2230057317297</v>
+        <v>327.2230057317298</v>
       </c>
       <c r="X11" t="n">
-        <v>347.7131376927857</v>
+        <v>347.7131376927858</v>
       </c>
       <c r="Y11" t="n">
         <v>364.2199756703703</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>124.4159996608859</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>37.70693734381032</v>
       </c>
       <c r="G13" t="n">
-        <v>63.68991917672297</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>129.7825024031495</v>
+        <v>129.7825024031496</v>
       </c>
       <c r="I13" t="n">
-        <v>98.16508131953911</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>200.9168367230224</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>264.2370988424726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>264.5050353509077</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>203.6916924033538</v>
+        <v>203.6916924033539</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>360.7158786777973</v>
       </c>
       <c r="C14" t="n">
-        <v>343.2549287853242</v>
+        <v>343.2549287853243</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>332.6650786349997</v>
       </c>
       <c r="E14" t="n">
         <v>359.9124070865785</v>
       </c>
       <c r="F14" t="n">
-        <v>325.3408285294249</v>
+        <v>384.8580827560282</v>
       </c>
       <c r="G14" t="n">
-        <v>390.6703562859438</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.6819282937579</v>
       </c>
       <c r="I14" t="n">
-        <v>87.6655672518816</v>
+        <v>87.66556725188165</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>127.4260508766241</v>
+        <v>127.4260508766242</v>
       </c>
       <c r="T14" t="n">
-        <v>189.6332707174919</v>
+        <v>189.633270717492</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>229.1185364626726</v>
       </c>
       <c r="V14" t="n">
-        <v>305.7342954844516</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>327.2230057317297</v>
+        <v>111.6448598840925</v>
       </c>
       <c r="X14" t="n">
-        <v>347.7131376927857</v>
+        <v>347.7131376927858</v>
       </c>
       <c r="Y14" t="n">
         <v>364.2199756703703</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>126.597510032529</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>123.403085037248</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7825024031495</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.48209087827527</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.5610097482531</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>200.9168367230224</v>
       </c>
       <c r="U16" t="n">
         <v>264.2370988424726</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>6.542181553682478</v>
       </c>
       <c r="W16" t="n">
         <v>264.5050353509077</v>
       </c>
       <c r="X16" t="n">
-        <v>203.6916924033538</v>
+        <v>203.6916924033539</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>299.9170255032617</v>
+        <v>299.9170255032619</v>
       </c>
       <c r="C17" t="n">
-        <v>282.4560756107887</v>
+        <v>282.4560756107888</v>
       </c>
       <c r="D17" t="n">
-        <v>271.8662254604641</v>
+        <v>271.8662254604642</v>
       </c>
       <c r="E17" t="n">
-        <v>299.1135539120429</v>
+        <v>299.1135539120431</v>
       </c>
       <c r="F17" t="n">
-        <v>324.0592295814926</v>
+        <v>324.0592295814927</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8715031114082</v>
+        <v>329.8715031114084</v>
       </c>
       <c r="H17" t="n">
-        <v>229.8830751192223</v>
+        <v>229.8830751192225</v>
       </c>
       <c r="I17" t="n">
-        <v>26.866714077346</v>
+        <v>26.86671407734619</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.62719770208858</v>
+        <v>66.62719770208875</v>
       </c>
       <c r="T17" t="n">
-        <v>128.8344175429563</v>
+        <v>128.8344175429565</v>
       </c>
       <c r="U17" t="n">
-        <v>168.319683288137</v>
+        <v>168.3196832881371</v>
       </c>
       <c r="V17" t="n">
-        <v>244.935442309916</v>
+        <v>244.9354423099162</v>
       </c>
       <c r="W17" t="n">
-        <v>266.4241525571941</v>
+        <v>266.4241525571943</v>
       </c>
       <c r="X17" t="n">
-        <v>286.9142845182502</v>
+        <v>286.9142845182503</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.4211224958347</v>
+        <v>303.4211224958349</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.9446800813186</v>
       </c>
       <c r="H18" t="n">
-        <v>98.72562294559191</v>
+        <v>98.72562294559192</v>
       </c>
       <c r="I18" t="n">
-        <v>41.23491753188706</v>
+        <v>41.23491753188707</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.30723006815413</v>
+        <v>13.30723006815414</v>
       </c>
       <c r="S18" t="n">
         <v>145.7003858327294</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.01516402171842</v>
+        <v>97.01516402171497</v>
       </c>
       <c r="C19" t="n">
-        <v>84.43000493840896</v>
+        <v>84.43000493840911</v>
       </c>
       <c r="D19" t="n">
-        <v>65.79865685799348</v>
+        <v>65.79865685799363</v>
       </c>
       <c r="E19" t="n">
-        <v>63.61714648635029</v>
+        <v>63.61714648635045</v>
       </c>
       <c r="F19" t="n">
-        <v>62.60423186271237</v>
+        <v>62.60423186271252</v>
       </c>
       <c r="G19" t="n">
-        <v>84.00142517876469</v>
+        <v>84.00142517876485</v>
       </c>
       <c r="H19" t="n">
-        <v>68.98364922861397</v>
+        <v>68.98364922861413</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36622814500357</v>
+        <v>37.36622814500373</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74600935945691</v>
+        <v>41.74600935945708</v>
       </c>
       <c r="S19" t="n">
-        <v>120.7621565737175</v>
+        <v>120.7621565737177</v>
       </c>
       <c r="T19" t="n">
-        <v>140.1179835484868</v>
+        <v>140.117983548487</v>
       </c>
       <c r="U19" t="n">
-        <v>203.438245667937</v>
+        <v>203.4382456679372</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3208271636091</v>
+        <v>169.3208271636093</v>
       </c>
       <c r="W19" t="n">
-        <v>203.7061821763721</v>
+        <v>203.7061821763723</v>
       </c>
       <c r="X19" t="n">
-        <v>142.8928392288183</v>
+        <v>142.8928392288184</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.7678371918759</v>
+        <v>135.7678371918761</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.62719770208858</v>
+        <v>66.62719770208859</v>
       </c>
       <c r="T20" t="n">
         <v>128.8344175429563</v>
@@ -2336,7 +2336,7 @@
         <v>229.8830751192223</v>
       </c>
       <c r="I23" t="n">
-        <v>26.86671407734602</v>
+        <v>26.86671407734603</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.62719770208858</v>
+        <v>66.62719770208861</v>
       </c>
       <c r="T23" t="n">
         <v>128.8344175429563</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.01516402171841</v>
+        <v>97.01516402171842</v>
       </c>
       <c r="C25" t="n">
-        <v>84.43000493840894</v>
+        <v>84.43000493840896</v>
       </c>
       <c r="D25" t="n">
-        <v>65.79865685799346</v>
+        <v>65.79865685799348</v>
       </c>
       <c r="E25" t="n">
-        <v>63.61714648635028</v>
+        <v>63.61714648635029</v>
       </c>
       <c r="F25" t="n">
-        <v>62.60423186271235</v>
+        <v>62.60423186271237</v>
       </c>
       <c r="G25" t="n">
-        <v>84.00142517876468</v>
+        <v>84.00142517876469</v>
       </c>
       <c r="H25" t="n">
         <v>68.98364922861396</v>
       </c>
       <c r="I25" t="n">
-        <v>37.36622814500356</v>
+        <v>37.36622814500357</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74600935945691</v>
+        <v>41.74600935945692</v>
       </c>
       <c r="S25" t="n">
         <v>120.7621565737175</v>
@@ -2561,10 +2561,10 @@
         <v>293.8825172578336</v>
       </c>
       <c r="E26" t="n">
-        <v>321.1298457094124</v>
+        <v>321.1298457094125</v>
       </c>
       <c r="F26" t="n">
-        <v>346.075521378862</v>
+        <v>346.0755213788621</v>
       </c>
       <c r="G26" t="n">
         <v>351.8877949087778</v>
@@ -2573,7 +2573,7 @@
         <v>251.8993669165918</v>
       </c>
       <c r="I26" t="n">
-        <v>48.88300587471555</v>
+        <v>48.88300587471559</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.64348949945813</v>
+        <v>88.64348949945816</v>
       </c>
       <c r="T26" t="n">
         <v>150.8507093403259</v>
@@ -2615,10 +2615,10 @@
         <v>266.9517341072856</v>
       </c>
       <c r="W26" t="n">
-        <v>288.4404443545636</v>
+        <v>288.4404443545637</v>
       </c>
       <c r="X26" t="n">
-        <v>308.9305763156196</v>
+        <v>308.9305763156197</v>
       </c>
       <c r="Y26" t="n">
         <v>325.4374142932043</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.0314558190879</v>
+        <v>119.031455819088</v>
       </c>
       <c r="C28" t="n">
-        <v>106.4462967357785</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.05490882095695</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.63343828371981</v>
+        <v>85.63343828371984</v>
       </c>
       <c r="F28" t="n">
-        <v>84.62052366008189</v>
+        <v>84.62052366008191</v>
       </c>
       <c r="G28" t="n">
         <v>106.0177169761342</v>
       </c>
       <c r="H28" t="n">
-        <v>90.99994102598347</v>
+        <v>90.99994102598352</v>
       </c>
       <c r="I28" t="n">
-        <v>59.38251994237309</v>
+        <v>18.24253098135461</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.778448371087</v>
+        <v>142.7784483710871</v>
       </c>
       <c r="T28" t="n">
         <v>162.1342753458563</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>225.4545374653065</v>
       </c>
       <c r="V28" t="n">
-        <v>191.3371189609786</v>
+        <v>191.3371189609787</v>
       </c>
       <c r="W28" t="n">
-        <v>225.7224739737416</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>164.9091310261878</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.7841289892454</v>
+        <v>157.7841289892455</v>
       </c>
     </row>
     <row r="29">
@@ -2798,10 +2798,10 @@
         <v>293.8825172578336</v>
       </c>
       <c r="E29" t="n">
-        <v>321.1298457094124</v>
+        <v>321.1298457094125</v>
       </c>
       <c r="F29" t="n">
-        <v>346.075521378862</v>
+        <v>346.0755213788621</v>
       </c>
       <c r="G29" t="n">
         <v>351.8877949087778</v>
@@ -2810,7 +2810,7 @@
         <v>251.8993669165918</v>
       </c>
       <c r="I29" t="n">
-        <v>48.88300587471555</v>
+        <v>48.88300587471558</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.64348949945813</v>
+        <v>88.64348949945816</v>
       </c>
       <c r="T29" t="n">
         <v>150.8507093403259</v>
@@ -2852,10 +2852,10 @@
         <v>266.9517341072856</v>
       </c>
       <c r="W29" t="n">
-        <v>288.4404443545636</v>
+        <v>288.4404443545637</v>
       </c>
       <c r="X29" t="n">
-        <v>308.9305763156196</v>
+        <v>308.9305763156197</v>
       </c>
       <c r="Y29" t="n">
         <v>325.4374142932043</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.0314558190879</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4462967357785</v>
       </c>
       <c r="D31" t="n">
-        <v>83.55954284215031</v>
+        <v>87.81494865536303</v>
       </c>
       <c r="E31" t="n">
-        <v>85.63343828371981</v>
+        <v>85.63343828371984</v>
       </c>
       <c r="F31" t="n">
-        <v>84.62052366008189</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>90.9999410259835</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>59.38251994237312</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.76230115682644</v>
+        <v>63.76230115682647</v>
       </c>
       <c r="S31" t="n">
-        <v>142.778448371087</v>
+        <v>142.7784483710871</v>
       </c>
       <c r="T31" t="n">
         <v>162.1342753458563</v>
@@ -3007,16 +3007,16 @@
         <v>225.4545374653065</v>
       </c>
       <c r="V31" t="n">
-        <v>191.3371189609786</v>
+        <v>191.3371189609787</v>
       </c>
       <c r="W31" t="n">
-        <v>225.7224739737416</v>
+        <v>175.4152919725057</v>
       </c>
       <c r="X31" t="n">
-        <v>164.9091310261878</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>157.7841289892455</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3035,13 @@
         <v>271.8662254604641</v>
       </c>
       <c r="E32" t="n">
-        <v>299.1135539120429</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>324.0592295814926</v>
       </c>
       <c r="G32" t="n">
-        <v>329.8715031114082</v>
+        <v>367.5496963524365</v>
       </c>
       <c r="H32" t="n">
         <v>229.8830751192223</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>149.4440138623075</v>
+        <v>66.62719770208858</v>
       </c>
       <c r="T32" t="n">
-        <v>211.6512337031752</v>
+        <v>128.8344175429563</v>
       </c>
       <c r="U32" t="n">
-        <v>205.9978765291648</v>
+        <v>168.319683288137</v>
       </c>
       <c r="V32" t="n">
-        <v>244.935442309916</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>266.4241525571941</v>
@@ -3281,7 +3281,7 @@
         <v>329.8715031114082</v>
       </c>
       <c r="H35" t="n">
-        <v>229.8830751192223</v>
+        <v>229.8830751192222</v>
       </c>
       <c r="I35" t="n">
         <v>26.866714077346</v>
@@ -3439,7 +3439,7 @@
         <v>84.00142517876466</v>
       </c>
       <c r="H37" t="n">
-        <v>68.98364922861394</v>
+        <v>68.98364922861393</v>
       </c>
       <c r="I37" t="n">
         <v>37.36622814500355</v>
@@ -3521,7 +3521,7 @@
         <v>229.8830751192223</v>
       </c>
       <c r="I38" t="n">
-        <v>26.86671407734602</v>
+        <v>26.86671407734603</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.62719770208859</v>
+        <v>66.62719770208861</v>
       </c>
       <c r="T38" t="n">
         <v>128.8344175429563</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.01516402171841</v>
+        <v>97.01516402171842</v>
       </c>
       <c r="C40" t="n">
-        <v>84.43000493840894</v>
+        <v>84.43000493840896</v>
       </c>
       <c r="D40" t="n">
-        <v>65.79865685799346</v>
+        <v>65.79865685799348</v>
       </c>
       <c r="E40" t="n">
-        <v>63.61714648635028</v>
+        <v>63.61714648635029</v>
       </c>
       <c r="F40" t="n">
-        <v>62.60423186271235</v>
+        <v>62.60423186271237</v>
       </c>
       <c r="G40" t="n">
-        <v>84.00142517876468</v>
+        <v>84.00142517876469</v>
       </c>
       <c r="H40" t="n">
         <v>68.98364922861396</v>
       </c>
       <c r="I40" t="n">
-        <v>37.36622814500356</v>
+        <v>37.36622814500357</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74600935945691</v>
+        <v>41.74600935945692</v>
       </c>
       <c r="S40" t="n">
         <v>120.7621565737175</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.9170255032618</v>
+        <v>299.9170255032617</v>
       </c>
       <c r="C41" t="n">
         <v>282.4560756107887</v>
@@ -3746,19 +3746,19 @@
         <v>271.8662254604641</v>
       </c>
       <c r="E41" t="n">
-        <v>299.113553912043</v>
+        <v>299.1135539120429</v>
       </c>
       <c r="F41" t="n">
         <v>324.0592295814926</v>
       </c>
       <c r="G41" t="n">
-        <v>329.8715031114083</v>
+        <v>329.8715031114082</v>
       </c>
       <c r="H41" t="n">
         <v>229.8830751192223</v>
       </c>
       <c r="I41" t="n">
-        <v>26.86671407734609</v>
+        <v>26.86671407734603</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.62719770208867</v>
+        <v>66.62719770208861</v>
       </c>
       <c r="T41" t="n">
-        <v>128.8344175429564</v>
+        <v>128.8344175429563</v>
       </c>
       <c r="U41" t="n">
-        <v>168.319683288137</v>
+        <v>168.3196832881372</v>
       </c>
       <c r="V41" t="n">
-        <v>244.9354423099161</v>
+        <v>244.935442309916</v>
       </c>
       <c r="W41" t="n">
-        <v>266.4241525571942</v>
+        <v>266.4241525571941</v>
       </c>
       <c r="X41" t="n">
         <v>286.9142845182502</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.4211224958348</v>
+        <v>303.4211224958347</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.01516402171848</v>
+        <v>97.01516402171842</v>
       </c>
       <c r="C43" t="n">
-        <v>84.43000493840901</v>
+        <v>84.43000493840896</v>
       </c>
       <c r="D43" t="n">
-        <v>65.79865685799354</v>
+        <v>65.79865685799348</v>
       </c>
       <c r="E43" t="n">
-        <v>63.61714648635035</v>
+        <v>63.61714648635029</v>
       </c>
       <c r="F43" t="n">
-        <v>62.60423186271242</v>
+        <v>62.60423186271237</v>
       </c>
       <c r="G43" t="n">
-        <v>84.00142517876475</v>
+        <v>84.00142517876469</v>
       </c>
       <c r="H43" t="n">
-        <v>68.98364922861403</v>
+        <v>68.98364922861396</v>
       </c>
       <c r="I43" t="n">
-        <v>37.36622814500363</v>
+        <v>37.36622814500357</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74600935945698</v>
+        <v>41.74600935945692</v>
       </c>
       <c r="S43" t="n">
-        <v>120.7621565737176</v>
+        <v>120.7621565737175</v>
       </c>
       <c r="T43" t="n">
         <v>140.1179835484868</v>
       </c>
       <c r="U43" t="n">
-        <v>203.4382456679371</v>
+        <v>203.438245667937</v>
       </c>
       <c r="V43" t="n">
-        <v>169.3208271636092</v>
+        <v>169.3208271636091</v>
       </c>
       <c r="W43" t="n">
-        <v>203.7061821763722</v>
+        <v>203.7061821763721</v>
       </c>
       <c r="X43" t="n">
         <v>142.8928392288183</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.767837191876</v>
+        <v>135.7678371918759</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>229.8830751192223</v>
       </c>
       <c r="I44" t="n">
-        <v>26.86671407734602</v>
+        <v>26.86671407734603</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.62719770208859</v>
+        <v>66.62719770208861</v>
       </c>
       <c r="T44" t="n">
         <v>128.8344175429563</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.01516402171841</v>
+        <v>97.01516402171842</v>
       </c>
       <c r="C46" t="n">
-        <v>84.43000493840894</v>
+        <v>84.43000493840896</v>
       </c>
       <c r="D46" t="n">
-        <v>65.79865685799346</v>
+        <v>65.79865685799348</v>
       </c>
       <c r="E46" t="n">
-        <v>63.61714648635028</v>
+        <v>63.61714648635029</v>
       </c>
       <c r="F46" t="n">
-        <v>62.60423186271235</v>
+        <v>62.60423186271237</v>
       </c>
       <c r="G46" t="n">
-        <v>84.00142517876468</v>
+        <v>84.00142517876469</v>
       </c>
       <c r="H46" t="n">
-        <v>68.98364922861394</v>
+        <v>68.98364922861397</v>
       </c>
       <c r="I46" t="n">
-        <v>37.36622814500356</v>
+        <v>37.36622814500357</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74600935945691</v>
+        <v>41.74600935945692</v>
       </c>
       <c r="S46" t="n">
         <v>120.7621565737175</v>
@@ -4352,16 +4352,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
         <v>14.44108515774386</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.667680719235332</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="C3" t="n">
-        <v>6.667680719235332</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="D3" t="n">
-        <v>6.667680719235332</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E3" t="n">
         <v>1.304216312122629</v>
@@ -4410,16 +4410,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N3" t="n">
         <v>13.8896123982571</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
         <v>20.69689768255142</v>
@@ -4431,7 +4431,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
         <v>20.55868221764227</v>
@@ -4443,16 +4443,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.667680719235332</v>
+        <v>1.304216312122629</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4504,34 +4504,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T4" t="n">
-        <v>20.55868221764227</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U4" t="n">
-        <v>13.6131814684388</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
         <v>14.44108515774386</v>
@@ -4568,49 +4568,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M5" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G6" t="n">
-        <v>8.2497170613261</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H6" t="n">
-        <v>8.2497170613261</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
@@ -4650,19 +4650,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N6" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
@@ -4677,19 +4677,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U6" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V6" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
@@ -4741,34 +4741,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U7" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V7" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W7" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X7" t="n">
-        <v>24.75525293138463</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.75525293138463</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="D8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="E8" t="n">
-        <v>95.20412760976917</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F8" t="n">
-        <v>55.22041350689989</v>
+        <v>61.33096352419322</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>45.87365290284468</v>
       </c>
       <c r="H8" t="n">
         <v>15.2366994040306</v>
@@ -4805,19 +4805,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
@@ -4829,25 +4829,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="W8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="H9" t="n">
         <v>43.90455691260225</v>
@@ -4887,19 +4887,19 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
@@ -4917,16 +4917,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.90455691260225</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G10" t="n">
         <v>65.64486044757699</v>
@@ -4957,7 +4957,7 @@
         <v>65.64486044757699</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J10" t="n">
         <v>25.66114634470771</v>
@@ -4981,31 +4981,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
+        <v>130.4472581485427</v>
+      </c>
+      <c r="R10" t="n">
+        <v>130.4472581485427</v>
+      </c>
+      <c r="S10" t="n">
+        <v>130.4472581485427</v>
+      </c>
+      <c r="T10" t="n">
         <v>90.46354404567346</v>
       </c>
-      <c r="R10" t="n">
-        <v>65.64486044757699</v>
-      </c>
-      <c r="S10" t="n">
-        <v>65.64486044757699</v>
-      </c>
-      <c r="T10" t="n">
-        <v>65.64486044757699</v>
-      </c>
       <c r="U10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y10" t="n">
-        <v>65.64486044757699</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1672.212785072687</v>
+        <v>1860.008599463295</v>
       </c>
       <c r="C11" t="n">
-        <v>1325.490634784481</v>
+        <v>1513.286449175088</v>
       </c>
       <c r="D11" t="n">
-        <v>1325.490634784481</v>
+        <v>1513.286449175088</v>
       </c>
       <c r="E11" t="n">
-        <v>961.9427488384418</v>
+        <v>1149.738563229049</v>
       </c>
       <c r="F11" t="n">
-        <v>573.1972107010397</v>
+        <v>760.9930250916469</v>
       </c>
       <c r="G11" t="n">
-        <v>454.927581622897</v>
+        <v>366.3765035906935</v>
       </c>
       <c r="H11" t="n">
-        <v>161.3094722352629</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="I11" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J11" t="n">
-        <v>113.199474312625</v>
+        <v>280.6051233329781</v>
       </c>
       <c r="K11" t="n">
-        <v>545.452646819748</v>
+        <v>712.8582958401009</v>
       </c>
       <c r="L11" t="n">
-        <v>1133.977557297167</v>
+        <v>1301.38320631752</v>
       </c>
       <c r="M11" t="n">
-        <v>1805.431462286436</v>
+        <v>1653.472176285898</v>
       </c>
       <c r="N11" t="n">
-        <v>2473.118195896063</v>
+        <v>2321.158909895526</v>
       </c>
       <c r="O11" t="n">
-        <v>3058.408207246306</v>
+        <v>2906.448921245768</v>
       </c>
       <c r="P11" t="n">
-        <v>3520.265307863215</v>
+        <v>3368.306021862677</v>
       </c>
       <c r="Q11" t="n">
-        <v>3623.70446642583</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="R11" t="n">
-        <v>3637.919710152962</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="S11" t="n">
-        <v>3509.206527449301</v>
+        <v>3509.206527449302</v>
       </c>
       <c r="T11" t="n">
-        <v>3317.657769148804</v>
+        <v>3317.657769148806</v>
       </c>
       <c r="U11" t="n">
-        <v>3086.224904034993</v>
+        <v>3086.224904034995</v>
       </c>
       <c r="V11" t="n">
-        <v>3086.224904034993</v>
+        <v>3086.224904034995</v>
       </c>
       <c r="W11" t="n">
-        <v>2755.696615417085</v>
+        <v>2755.696615417086</v>
       </c>
       <c r="X11" t="n">
-        <v>2404.47122380821</v>
+        <v>2404.471223808211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2036.572258484603</v>
+        <v>2036.572258484605</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>657.2225491602132</v>
       </c>
       <c r="E12" t="n">
-        <v>497.9850941547577</v>
+        <v>497.9850941547578</v>
       </c>
       <c r="F12" t="n">
-        <v>351.4505361816426</v>
+        <v>351.4505361816427</v>
       </c>
       <c r="G12" t="n">
         <v>214.1326775136441</v>
@@ -5115,19 +5115,19 @@
         <v>114.4098260534502</v>
       </c>
       <c r="I12" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J12" t="n">
-        <v>78.02697751018957</v>
+        <v>202.8571024971943</v>
       </c>
       <c r="K12" t="n">
-        <v>165.1866502746024</v>
+        <v>551.8373599040599</v>
       </c>
       <c r="L12" t="n">
-        <v>328.7061276332023</v>
+        <v>927.2359147809037</v>
       </c>
       <c r="M12" t="n">
-        <v>999.9305262799793</v>
+        <v>1137.412300315181</v>
       </c>
       <c r="N12" t="n">
         <v>1367.560074290944</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367.3417304650912</v>
+        <v>367.6123734029035</v>
       </c>
       <c r="C13" t="n">
-        <v>367.3417304650912</v>
+        <v>367.6123734029035</v>
       </c>
       <c r="D13" t="n">
-        <v>367.3417304650912</v>
+        <v>367.6123734029035</v>
       </c>
       <c r="E13" t="n">
-        <v>367.3417304650912</v>
+        <v>241.9396464727157</v>
       </c>
       <c r="F13" t="n">
-        <v>367.3417304650912</v>
+        <v>203.8518309739174</v>
       </c>
       <c r="G13" t="n">
-        <v>303.0084787714317</v>
+        <v>203.8518309739174</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9150420005735</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="I13" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J13" t="n">
-        <v>84.21404144050689</v>
+        <v>84.21404144050686</v>
       </c>
       <c r="K13" t="n">
-        <v>218.8533548887461</v>
+        <v>218.8533548887458</v>
       </c>
       <c r="L13" t="n">
-        <v>440.5758813867615</v>
+        <v>440.5758813867611</v>
       </c>
       <c r="M13" t="n">
-        <v>683.555397963107</v>
+        <v>683.5553979631065</v>
       </c>
       <c r="N13" t="n">
-        <v>926.7103237108033</v>
+        <v>926.7103237108029</v>
       </c>
       <c r="O13" t="n">
-        <v>1136.950960242732</v>
+        <v>1136.950960242731</v>
       </c>
       <c r="P13" t="n">
-        <v>1296.473476770685</v>
+        <v>1296.473476770684</v>
       </c>
       <c r="Q13" t="n">
         <v>1330.189646383807</v>
       </c>
       <c r="R13" t="n">
-        <v>1226.608977157553</v>
+        <v>1226.608977157552</v>
       </c>
       <c r="S13" t="n">
-        <v>1043.214017815883</v>
+        <v>1043.214017815882</v>
       </c>
       <c r="T13" t="n">
-        <v>840.2677180956584</v>
+        <v>840.2677180956575</v>
       </c>
       <c r="U13" t="n">
-        <v>840.2677180956584</v>
+        <v>573.3615576487155</v>
       </c>
       <c r="V13" t="n">
-        <v>840.2677180956584</v>
+        <v>573.3615576487155</v>
       </c>
       <c r="W13" t="n">
-        <v>573.0909147109032</v>
+        <v>573.3615576487155</v>
       </c>
       <c r="X13" t="n">
-        <v>367.3417304650912</v>
+        <v>367.6123734029035</v>
       </c>
       <c r="Y13" t="n">
-        <v>367.3417304650912</v>
+        <v>367.6123734029035</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1594.823129495133</v>
+        <v>1889.968487949091</v>
       </c>
       <c r="C14" t="n">
-        <v>1248.100979206926</v>
+        <v>1543.246337660884</v>
       </c>
       <c r="D14" t="n">
-        <v>1248.100979206926</v>
+        <v>1207.221005706339</v>
       </c>
       <c r="E14" t="n">
-        <v>884.5530932608876</v>
+        <v>843.6731197603003</v>
       </c>
       <c r="F14" t="n">
-        <v>555.925993736216</v>
+        <v>454.9275816228977</v>
       </c>
       <c r="G14" t="n">
-        <v>161.3094722352629</v>
+        <v>454.9275816228977</v>
       </c>
       <c r="H14" t="n">
-        <v>161.3094722352629</v>
+        <v>161.3094722352635</v>
       </c>
       <c r="I14" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J14" t="n">
         <v>280.6051233329781</v>
       </c>
       <c r="K14" t="n">
-        <v>391.9543373946479</v>
+        <v>712.8582958401009</v>
       </c>
       <c r="L14" t="n">
-        <v>980.4792478720665</v>
+        <v>1286.383748659265</v>
       </c>
       <c r="M14" t="n">
-        <v>1651.933152861336</v>
+        <v>1957.837653648534</v>
       </c>
       <c r="N14" t="n">
-        <v>2306.943666168393</v>
+        <v>2625.524387258162</v>
       </c>
       <c r="O14" t="n">
-        <v>2892.233677518636</v>
+        <v>3210.814398608405</v>
       </c>
       <c r="P14" t="n">
-        <v>3354.090778135544</v>
+        <v>3354.090778135546</v>
       </c>
       <c r="Q14" t="n">
-        <v>3623.70446642583</v>
+        <v>3623.704466425831</v>
       </c>
       <c r="R14" t="n">
-        <v>3637.919710152962</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="S14" t="n">
-        <v>3509.206527449301</v>
+        <v>3509.206527449302</v>
       </c>
       <c r="T14" t="n">
         <v>3317.657769148805</v>
       </c>
       <c r="U14" t="n">
-        <v>3317.657769148805</v>
+        <v>3086.224904034994</v>
       </c>
       <c r="V14" t="n">
-        <v>3008.835248457439</v>
+        <v>3086.224904034994</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.30695983953</v>
+        <v>2973.452318293488</v>
       </c>
       <c r="X14" t="n">
-        <v>2327.081568230656</v>
+        <v>2622.226926684613</v>
       </c>
       <c r="Y14" t="n">
-        <v>1959.182602907049</v>
+        <v>2254.327961361007</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>980.6099881025915</v>
+        <v>1979.467348756797</v>
       </c>
       <c r="C15" t="n">
-        <v>806.1569588214645</v>
+        <v>1805.01431947567</v>
       </c>
       <c r="D15" t="n">
-        <v>657.2225491602132</v>
+        <v>1656.079909814419</v>
       </c>
       <c r="E15" t="n">
-        <v>497.9850941547577</v>
+        <v>1496.842454808964</v>
       </c>
       <c r="F15" t="n">
-        <v>351.4505361816426</v>
+        <v>1350.307896835849</v>
       </c>
       <c r="G15" t="n">
-        <v>214.1326775136441</v>
+        <v>1212.99003816785</v>
       </c>
       <c r="H15" t="n">
-        <v>114.4098260534502</v>
+        <v>1113.267186707656</v>
       </c>
       <c r="I15" t="n">
-        <v>72.75839420305924</v>
+        <v>1071.615754857265</v>
       </c>
       <c r="J15" t="n">
-        <v>78.02697751018957</v>
+        <v>1076.884338164396</v>
       </c>
       <c r="K15" t="n">
-        <v>351.3741295217138</v>
+        <v>1425.864595571261</v>
       </c>
       <c r="L15" t="n">
-        <v>514.8936068803137</v>
+        <v>1956.516014780286</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.118005527091</v>
+        <v>2627.740413427063</v>
       </c>
       <c r="N15" t="n">
-        <v>1890.814730102972</v>
+        <v>2964.317645887603</v>
       </c>
       <c r="O15" t="n">
-        <v>2469.058881158788</v>
+        <v>3152.638100859456</v>
       </c>
       <c r="P15" t="n">
-        <v>2600.869582655008</v>
+        <v>3599.726943309214</v>
       </c>
       <c r="Q15" t="n">
-        <v>2639.062349498757</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="R15" t="n">
-        <v>2625.620702965268</v>
+        <v>3624.478063619474</v>
       </c>
       <c r="S15" t="n">
-        <v>2478.448596063522</v>
+        <v>3477.305956717727</v>
       </c>
       <c r="T15" t="n">
-        <v>2281.957248977926</v>
+        <v>3280.814609632132</v>
       </c>
       <c r="U15" t="n">
-        <v>2053.826589053091</v>
+        <v>3052.683949707297</v>
       </c>
       <c r="V15" t="n">
-        <v>1818.674480821348</v>
+        <v>2817.531841475554</v>
       </c>
       <c r="W15" t="n">
-        <v>1564.437124093146</v>
+        <v>2563.294484747352</v>
       </c>
       <c r="X15" t="n">
-        <v>1356.585623887613</v>
+        <v>2355.442984541819</v>
       </c>
       <c r="Y15" t="n">
-        <v>1148.825325122659</v>
+        <v>2147.682685776866</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>331.7281037340475</v>
+        <v>197.4079750487643</v>
       </c>
       <c r="C16" t="n">
-        <v>331.7281037340475</v>
+        <v>197.4079750487643</v>
       </c>
       <c r="D16" t="n">
-        <v>203.8518309739173</v>
+        <v>197.4079750487643</v>
       </c>
       <c r="E16" t="n">
-        <v>203.8518309739173</v>
+        <v>197.4079750487643</v>
       </c>
       <c r="F16" t="n">
-        <v>203.8518309739173</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="G16" t="n">
-        <v>203.8518309739173</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="H16" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="I16" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J16" t="n">
-        <v>84.21404144050678</v>
+        <v>84.21404144050683</v>
       </c>
       <c r="K16" t="n">
         <v>218.853354888746</v>
       </c>
       <c r="L16" t="n">
-        <v>440.5758813867614</v>
+        <v>440.5758813867611</v>
       </c>
       <c r="M16" t="n">
-        <v>683.5553979631068</v>
+        <v>683.5553979631065</v>
       </c>
       <c r="N16" t="n">
-        <v>926.7103237108031</v>
+        <v>926.7103237108029</v>
       </c>
       <c r="O16" t="n">
-        <v>1136.950960242732</v>
+        <v>1136.950960242731</v>
       </c>
       <c r="P16" t="n">
-        <v>1296.473476770685</v>
+        <v>1296.473476770684</v>
       </c>
       <c r="Q16" t="n">
-        <v>1330.189646383808</v>
+        <v>1330.189646383807</v>
       </c>
       <c r="R16" t="n">
-        <v>1254.955211153227</v>
+        <v>1330.189646383807</v>
       </c>
       <c r="S16" t="n">
-        <v>1071.560251811557</v>
+        <v>1146.794687042137</v>
       </c>
       <c r="T16" t="n">
-        <v>1071.560251811557</v>
+        <v>943.8483873219125</v>
       </c>
       <c r="U16" t="n">
-        <v>804.6540913646147</v>
+        <v>676.9422268749705</v>
       </c>
       <c r="V16" t="n">
-        <v>804.6540913646147</v>
+        <v>670.3339626793316</v>
       </c>
       <c r="W16" t="n">
-        <v>537.4772879798595</v>
+        <v>403.1571592945763</v>
       </c>
       <c r="X16" t="n">
-        <v>331.7281037340475</v>
+        <v>197.4079750487643</v>
       </c>
       <c r="Y16" t="n">
-        <v>331.7281037340475</v>
+        <v>197.4079750487643</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1854.694128417973</v>
+        <v>1854.694128417974</v>
       </c>
       <c r="C17" t="n">
-        <v>1569.384961134348</v>
+        <v>1569.384961134349</v>
       </c>
       <c r="D17" t="n">
         <v>1294.772612184385</v>
@@ -5501,64 +5501,64 @@
         <v>992.637709242927</v>
       </c>
       <c r="F17" t="n">
-        <v>665.3051541101063</v>
+        <v>665.3051541101061</v>
       </c>
       <c r="G17" t="n">
-        <v>332.1016156137343</v>
+        <v>332.101615613734</v>
       </c>
       <c r="H17" t="n">
-        <v>99.89648923068147</v>
+        <v>99.89648923068168</v>
       </c>
       <c r="I17" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J17" t="n">
         <v>280.6051233329781</v>
       </c>
       <c r="K17" t="n">
-        <v>697.8588381818448</v>
+        <v>712.8582958401009</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.383748659264</v>
+        <v>982.0182712966287</v>
       </c>
       <c r="M17" t="n">
-        <v>1957.837653648533</v>
+        <v>1653.472176285898</v>
       </c>
       <c r="N17" t="n">
-        <v>2625.52438725816</v>
+        <v>2321.158909895526</v>
       </c>
       <c r="O17" t="n">
-        <v>3210.814398608403</v>
+        <v>2906.448921245768</v>
       </c>
       <c r="P17" t="n">
-        <v>3354.090778135544</v>
+        <v>3368.306021862677</v>
       </c>
       <c r="Q17" t="n">
-        <v>3623.70446642583</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="R17" t="n">
-        <v>3637.919710152962</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="S17" t="n">
-        <v>3570.619510453882</v>
+        <v>3570.619510453883</v>
       </c>
       <c r="T17" t="n">
-        <v>3440.483735157967</v>
+        <v>3440.483735157968</v>
       </c>
       <c r="U17" t="n">
-        <v>3270.463853048737</v>
+        <v>3270.463853048739</v>
       </c>
       <c r="V17" t="n">
-        <v>3023.054315361953</v>
+        <v>3023.054315361955</v>
       </c>
       <c r="W17" t="n">
-        <v>2753.939009748626</v>
+        <v>2753.939009748628</v>
       </c>
       <c r="X17" t="n">
-        <v>2464.126601144333</v>
+        <v>2464.126601144334</v>
       </c>
       <c r="Y17" t="n">
-        <v>2157.640618825308</v>
+        <v>2157.640618825309</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5577,10 @@
         <v>657.2225491602132</v>
       </c>
       <c r="E18" t="n">
-        <v>497.9850941547577</v>
+        <v>497.9850941547578</v>
       </c>
       <c r="F18" t="n">
-        <v>351.4505361816426</v>
+        <v>351.4505361816427</v>
       </c>
       <c r="G18" t="n">
         <v>214.1326775136441</v>
@@ -5589,22 +5589,22 @@
         <v>114.4098260534502</v>
       </c>
       <c r="I18" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J18" t="n">
         <v>202.8571024971943</v>
       </c>
       <c r="K18" t="n">
-        <v>551.83735990406</v>
+        <v>551.8373599040599</v>
       </c>
       <c r="L18" t="n">
-        <v>715.35683726266</v>
+        <v>856.1115977523659</v>
       </c>
       <c r="M18" t="n">
-        <v>925.5332227969371</v>
+        <v>1527.335996399143</v>
       </c>
       <c r="N18" t="n">
-        <v>1630.229947372818</v>
+        <v>1757.483770374906</v>
       </c>
       <c r="O18" t="n">
         <v>1945.804225346759</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.2749019786622</v>
+        <v>544.2749019786639</v>
       </c>
       <c r="C19" t="n">
-        <v>458.9920687075421</v>
+        <v>458.9920687075436</v>
       </c>
       <c r="D19" t="n">
-        <v>392.5287789519932</v>
+        <v>392.5287789519944</v>
       </c>
       <c r="E19" t="n">
-        <v>328.2690350263868</v>
+        <v>328.2690350263879</v>
       </c>
       <c r="F19" t="n">
-        <v>265.0324371852632</v>
+        <v>265.0324371852641</v>
       </c>
       <c r="G19" t="n">
-        <v>180.1825127622685</v>
+        <v>180.1825127622693</v>
       </c>
       <c r="H19" t="n">
-        <v>110.502058995992</v>
+        <v>110.5020589959923</v>
       </c>
       <c r="I19" t="n">
-        <v>72.75839420305924</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J19" t="n">
-        <v>144.4049060832967</v>
+        <v>144.404906083297</v>
       </c>
       <c r="K19" t="n">
         <v>339.2350841743261</v>
       </c>
       <c r="L19" t="n">
-        <v>621.1484753151317</v>
+        <v>621.1484753151315</v>
       </c>
       <c r="M19" t="n">
-        <v>924.3188565342674</v>
+        <v>924.318856534267</v>
       </c>
       <c r="N19" t="n">
-        <v>1227.664646924754</v>
+        <v>1227.664646924753</v>
       </c>
       <c r="O19" t="n">
-        <v>1498.096148099473</v>
+        <v>1498.096148099472</v>
       </c>
       <c r="P19" t="n">
-        <v>1717.809529270216</v>
+        <v>1717.809529270215</v>
       </c>
       <c r="Q19" t="n">
-        <v>1811.716563526129</v>
+        <v>1811.716563526128</v>
       </c>
       <c r="R19" t="n">
-        <v>1769.548877304455</v>
+        <v>1769.548877304454</v>
       </c>
       <c r="S19" t="n">
-        <v>1647.566900967367</v>
+        <v>1647.566900967365</v>
       </c>
       <c r="T19" t="n">
-        <v>1506.033584251724</v>
+        <v>1506.033584251722</v>
       </c>
       <c r="U19" t="n">
-        <v>1300.540406809363</v>
+        <v>1300.540406809361</v>
       </c>
       <c r="V19" t="n">
-        <v>1129.509268260263</v>
+        <v>1129.509268260261</v>
       </c>
       <c r="W19" t="n">
-        <v>923.7454478800892</v>
+        <v>923.7454478800876</v>
       </c>
       <c r="X19" t="n">
-        <v>779.4092466388586</v>
+        <v>779.4092466388569</v>
       </c>
       <c r="Y19" t="n">
-        <v>642.2700171521152</v>
+        <v>642.2700171521134</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1854.694128417972</v>
+        <v>1854.694128417974</v>
       </c>
       <c r="C20" t="n">
-        <v>1569.384961134348</v>
+        <v>1569.384961134349</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.772612184384</v>
+        <v>1294.772612184385</v>
       </c>
       <c r="E20" t="n">
-        <v>992.6377092429261</v>
+        <v>992.6377092429279</v>
       </c>
       <c r="F20" t="n">
-        <v>665.3051541101054</v>
+        <v>665.3051541101072</v>
       </c>
       <c r="G20" t="n">
-        <v>332.1016156137334</v>
+        <v>332.1016156137343</v>
       </c>
       <c r="H20" t="n">
-        <v>99.89648923068147</v>
+        <v>99.89648923068151</v>
       </c>
       <c r="I20" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J20" t="n">
-        <v>280.605123332978</v>
+        <v>280.6051233329781</v>
       </c>
       <c r="K20" t="n">
         <v>712.8582958401009</v>
@@ -5759,43 +5759,43 @@
         <v>1301.38320631752</v>
       </c>
       <c r="M20" t="n">
-        <v>1972.837111306789</v>
+        <v>1972.052897375666</v>
       </c>
       <c r="N20" t="n">
-        <v>2306.943666168392</v>
+        <v>2639.739630985293</v>
       </c>
       <c r="O20" t="n">
-        <v>2892.233677518635</v>
+        <v>3225.029642335536</v>
       </c>
       <c r="P20" t="n">
-        <v>3354.090778135544</v>
+        <v>3368.306021862677</v>
       </c>
       <c r="Q20" t="n">
-        <v>3623.70446642583</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="R20" t="n">
-        <v>3637.919710152961</v>
+        <v>3637.919710152963</v>
       </c>
       <c r="S20" t="n">
-        <v>3570.619510453882</v>
+        <v>3570.619510453884</v>
       </c>
       <c r="T20" t="n">
-        <v>3440.483735157966</v>
+        <v>3440.483735157968</v>
       </c>
       <c r="U20" t="n">
-        <v>3270.463853048737</v>
+        <v>3270.463853048739</v>
       </c>
       <c r="V20" t="n">
-        <v>3023.054315361953</v>
+        <v>3023.054315361955</v>
       </c>
       <c r="W20" t="n">
-        <v>2753.939009748626</v>
+        <v>2753.939009748628</v>
       </c>
       <c r="X20" t="n">
-        <v>2464.126601144333</v>
+        <v>2464.126601144334</v>
       </c>
       <c r="Y20" t="n">
-        <v>2157.640618825308</v>
+        <v>2157.640618825309</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5814,10 @@
         <v>657.2225491602132</v>
       </c>
       <c r="E21" t="n">
-        <v>497.9850941547577</v>
+        <v>497.9850941547578</v>
       </c>
       <c r="F21" t="n">
-        <v>351.4505361816426</v>
+        <v>351.4505361816427</v>
       </c>
       <c r="G21" t="n">
         <v>214.1326775136441</v>
@@ -5826,7 +5826,7 @@
         <v>114.4098260534502</v>
       </c>
       <c r="I21" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J21" t="n">
         <v>202.8571024971943</v>
@@ -5835,13 +5835,13 @@
         <v>551.8373599040599</v>
       </c>
       <c r="L21" t="n">
-        <v>1082.488779113084</v>
+        <v>927.2359147809037</v>
       </c>
       <c r="M21" t="n">
-        <v>1292.665164647362</v>
+        <v>1137.412300315181</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.812938623124</v>
+        <v>1367.560074290944</v>
       </c>
       <c r="O21" t="n">
         <v>1945.804225346759</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.2749019786625</v>
+        <v>544.2749019786626</v>
       </c>
       <c r="C22" t="n">
-        <v>458.9920687075423</v>
+        <v>458.9920687075424</v>
       </c>
       <c r="D22" t="n">
         <v>392.5287789519934</v>
       </c>
       <c r="E22" t="n">
-        <v>328.269035026387</v>
+        <v>328.2690350263871</v>
       </c>
       <c r="F22" t="n">
         <v>265.0324371852635</v>
@@ -5902,16 +5902,16 @@
         <v>180.1825127622689</v>
       </c>
       <c r="H22" t="n">
-        <v>110.5020589959921</v>
+        <v>110.5020589959922</v>
       </c>
       <c r="I22" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305927</v>
       </c>
       <c r="J22" t="n">
-        <v>144.4049060832972</v>
+        <v>144.4049060832971</v>
       </c>
       <c r="K22" t="n">
-        <v>339.2350841743266</v>
+        <v>339.2350841743265</v>
       </c>
       <c r="L22" t="n">
         <v>621.1484753151321</v>
@@ -5947,13 +5947,13 @@
         <v>1129.509268260263</v>
       </c>
       <c r="W22" t="n">
-        <v>923.7454478800894</v>
+        <v>923.7454478800895</v>
       </c>
       <c r="X22" t="n">
-        <v>779.4092466388588</v>
+        <v>779.4092466388589</v>
       </c>
       <c r="Y22" t="n">
-        <v>642.2700171521154</v>
+        <v>642.2700171521155</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1854.694128417972</v>
+        <v>1854.694128417973</v>
       </c>
       <c r="C23" t="n">
-        <v>1569.384961134347</v>
+        <v>1569.384961134348</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.772612184383</v>
+        <v>1294.772612184385</v>
       </c>
       <c r="E23" t="n">
-        <v>992.6377092429261</v>
+        <v>992.637709242927</v>
       </c>
       <c r="F23" t="n">
-        <v>665.3051541101054</v>
+        <v>665.3051541101063</v>
       </c>
       <c r="G23" t="n">
-        <v>332.1016156137334</v>
+        <v>332.1016156137343</v>
       </c>
       <c r="H23" t="n">
         <v>99.89648923068147</v>
       </c>
       <c r="I23" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305921</v>
       </c>
       <c r="J23" t="n">
         <v>280.605123332978</v>
@@ -5993,7 +5993,7 @@
         <v>712.8582958401009</v>
       </c>
       <c r="L23" t="n">
-        <v>1301.38320631752</v>
+        <v>967.8030275694953</v>
       </c>
       <c r="M23" t="n">
         <v>1639.256932558764</v>
@@ -6008,7 +6008,7 @@
         <v>3354.090778135544</v>
       </c>
       <c r="Q23" t="n">
-        <v>3623.70446642583</v>
+        <v>3623.704466425829</v>
       </c>
       <c r="R23" t="n">
         <v>3637.919710152961</v>
@@ -6017,7 +6017,7 @@
         <v>3570.619510453882</v>
       </c>
       <c r="T23" t="n">
-        <v>3440.483735157966</v>
+        <v>3440.483735157967</v>
       </c>
       <c r="U23" t="n">
         <v>3270.463853048737</v>
@@ -6026,13 +6026,13 @@
         <v>3023.054315361953</v>
       </c>
       <c r="W23" t="n">
-        <v>2753.939009748625</v>
+        <v>2753.939009748626</v>
       </c>
       <c r="X23" t="n">
-        <v>2464.126601144332</v>
+        <v>2464.126601144333</v>
       </c>
       <c r="Y23" t="n">
-        <v>2157.640618825307</v>
+        <v>2157.640618825308</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>114.4098260534502</v>
       </c>
       <c r="I24" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305921</v>
       </c>
       <c r="J24" t="n">
         <v>202.8571024971943</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>544.2749019786626</v>
+        <v>544.2749019786622</v>
       </c>
       <c r="C25" t="n">
-        <v>458.9920687075424</v>
+        <v>458.9920687075421</v>
       </c>
       <c r="D25" t="n">
-        <v>392.5287789519934</v>
+        <v>392.5287789519932</v>
       </c>
       <c r="E25" t="n">
-        <v>328.2690350263871</v>
+        <v>328.2690350263868</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0324371852635</v>
+        <v>265.0324371852632</v>
       </c>
       <c r="G25" t="n">
-        <v>180.1825127622688</v>
+        <v>180.1825127622685</v>
       </c>
       <c r="H25" t="n">
         <v>110.5020589959921</v>
       </c>
       <c r="I25" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305921</v>
       </c>
       <c r="J25" t="n">
-        <v>144.4049060832971</v>
+        <v>144.404906083297</v>
       </c>
       <c r="K25" t="n">
-        <v>339.2350841743265</v>
+        <v>339.2350841743264</v>
       </c>
       <c r="L25" t="n">
         <v>621.1484753151318</v>
@@ -6181,16 +6181,16 @@
         <v>1300.540406809364</v>
       </c>
       <c r="V25" t="n">
-        <v>1129.509268260264</v>
+        <v>1129.509268260263</v>
       </c>
       <c r="W25" t="n">
-        <v>923.7454478800896</v>
+        <v>923.7454478800895</v>
       </c>
       <c r="X25" t="n">
-        <v>779.409246638859</v>
+        <v>779.4092466388588</v>
       </c>
       <c r="Y25" t="n">
-        <v>642.2700171521155</v>
+        <v>642.2700171521152</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2017.172637250345</v>
+        <v>2017.172637250344</v>
       </c>
       <c r="C26" t="n">
-        <v>1709.624791383518</v>
+        <v>1709.624791383517</v>
       </c>
       <c r="D26" t="n">
-        <v>1412.773763850353</v>
+        <v>1412.773763850352</v>
       </c>
       <c r="E26" t="n">
-        <v>1088.400182325694</v>
+        <v>1088.400182325693</v>
       </c>
       <c r="F26" t="n">
-        <v>738.8289486096712</v>
+        <v>738.8289486096703</v>
       </c>
       <c r="G26" t="n">
-        <v>383.3867315300977</v>
+        <v>383.3867315300968</v>
       </c>
       <c r="H26" t="n">
         <v>128.9429265638427</v>
       </c>
       <c r="I26" t="n">
-        <v>79.5661529530189</v>
+        <v>79.56615295301889</v>
       </c>
       <c r="J26" t="n">
         <v>287.4128820829377</v>
@@ -6233,7 +6233,7 @@
         <v>1308.190965067479</v>
       </c>
       <c r="M26" t="n">
-        <v>1979.644870056749</v>
+        <v>1979.644870056748</v>
       </c>
       <c r="N26" t="n">
         <v>2647.331603666376</v>
@@ -6248,28 +6248,28 @@
         <v>3964.092403923813</v>
       </c>
       <c r="R26" t="n">
-        <v>3978.307647650945</v>
+        <v>3978.307647650944</v>
       </c>
       <c r="S26" t="n">
-        <v>3888.768769368664</v>
+        <v>3888.768769368663</v>
       </c>
       <c r="T26" t="n">
-        <v>3736.394315489547</v>
+        <v>3736.394315489546</v>
       </c>
       <c r="U26" t="n">
-        <v>3544.135754797117</v>
+        <v>3544.135754797116</v>
       </c>
       <c r="V26" t="n">
-        <v>3274.487538527131</v>
+        <v>3274.48753852713</v>
       </c>
       <c r="W26" t="n">
-        <v>2983.133554330602</v>
+        <v>2983.133554330601</v>
       </c>
       <c r="X26" t="n">
-        <v>2671.082467143108</v>
+        <v>2671.082467143106</v>
       </c>
       <c r="Y26" t="n">
-        <v>2342.357806240881</v>
+        <v>2342.35780624088</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6294,13 @@
         <v>358.2582949316023</v>
       </c>
       <c r="G27" t="n">
-        <v>220.9404362636038</v>
+        <v>220.9404362636037</v>
       </c>
       <c r="H27" t="n">
         <v>121.2175848034099</v>
       </c>
       <c r="I27" t="n">
-        <v>79.5661529530189</v>
+        <v>79.56615295301889</v>
       </c>
       <c r="J27" t="n">
         <v>209.664861247154</v>
@@ -6309,16 +6309,16 @@
         <v>558.6451186540196</v>
       </c>
       <c r="L27" t="n">
-        <v>1089.296537863044</v>
+        <v>722.1645960126195</v>
       </c>
       <c r="M27" t="n">
-        <v>1534.143755149103</v>
+        <v>1374.872945502522</v>
       </c>
       <c r="N27" t="n">
-        <v>1764.291529124866</v>
+        <v>2079.569670078403</v>
       </c>
       <c r="O27" t="n">
-        <v>1952.611984096719</v>
+        <v>2267.890125050257</v>
       </c>
       <c r="P27" t="n">
         <v>2399.700826546477</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>635.2786230995112</v>
+        <v>468.9743862128917</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7571112451894</v>
+        <v>468.9743862128917</v>
       </c>
       <c r="D28" t="n">
-        <v>510.5299306179608</v>
+        <v>468.9743862128917</v>
       </c>
       <c r="E28" t="n">
-        <v>424.0315081091529</v>
+        <v>382.4759637040838</v>
       </c>
       <c r="F28" t="n">
-        <v>338.5562316848278</v>
+        <v>297.0006872797586</v>
       </c>
       <c r="G28" t="n">
-        <v>231.4676286786316</v>
+        <v>189.9120842735624</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5484963291533</v>
+        <v>97.99295192408414</v>
       </c>
       <c r="I28" t="n">
-        <v>79.5661529530189</v>
+        <v>79.56615295301889</v>
       </c>
       <c r="J28" t="n">
         <v>129.4165359538609</v>
       </c>
       <c r="K28" t="n">
-        <v>302.4505851654947</v>
+        <v>302.4505851654944</v>
       </c>
       <c r="L28" t="n">
-        <v>562.5678474269043</v>
+        <v>562.567847426904</v>
       </c>
       <c r="M28" t="n">
-        <v>843.9420997666441</v>
+        <v>843.9420997666439</v>
       </c>
       <c r="N28" t="n">
         <v>1125.491761277735</v>
@@ -6409,25 +6409,25 @@
         <v>1644.155291240922</v>
       </c>
       <c r="S28" t="n">
-        <v>1499.934636320633</v>
+        <v>1499.934636320632</v>
       </c>
       <c r="T28" t="n">
-        <v>1336.162641021788</v>
+        <v>1336.162641021787</v>
       </c>
       <c r="U28" t="n">
-        <v>1336.162641021788</v>
+        <v>1108.430784996225</v>
       </c>
       <c r="V28" t="n">
-        <v>1142.892823889486</v>
+        <v>915.1609678639235</v>
       </c>
       <c r="W28" t="n">
-        <v>914.8903249261105</v>
+        <v>915.1609678639235</v>
       </c>
       <c r="X28" t="n">
-        <v>914.8903249261105</v>
+        <v>748.5860880394913</v>
       </c>
       <c r="Y28" t="n">
-        <v>755.5124168561656</v>
+        <v>589.2081799695463</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1088.400182325693</v>
       </c>
       <c r="F29" t="n">
-        <v>738.8289486096712</v>
+        <v>738.8289486096708</v>
       </c>
       <c r="G29" t="n">
-        <v>383.386731530097</v>
+        <v>383.3867315300972</v>
       </c>
       <c r="H29" t="n">
         <v>128.9429265638427</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56615295301889</v>
+        <v>79.56615295301891</v>
       </c>
       <c r="J29" t="n">
-        <v>287.4128820829377</v>
+        <v>287.4128820829374</v>
       </c>
       <c r="K29" t="n">
-        <v>719.6660545900606</v>
+        <v>719.66605459006</v>
       </c>
       <c r="L29" t="n">
         <v>1308.190965067479</v>
@@ -6473,28 +6473,28 @@
         <v>1979.644870056748</v>
       </c>
       <c r="N29" t="n">
-        <v>2647.331603666376</v>
+        <v>2647.331603666375</v>
       </c>
       <c r="O29" t="n">
-        <v>3232.621615016619</v>
+        <v>3232.621615016618</v>
       </c>
       <c r="P29" t="n">
-        <v>3694.478715633528</v>
+        <v>3694.478715633527</v>
       </c>
       <c r="Q29" t="n">
-        <v>3964.092403923813</v>
+        <v>3964.092403923814</v>
       </c>
       <c r="R29" t="n">
         <v>3978.307647650945</v>
       </c>
       <c r="S29" t="n">
-        <v>3888.768769368663</v>
+        <v>3888.768769368664</v>
       </c>
       <c r="T29" t="n">
-        <v>3736.394315489546</v>
+        <v>3736.394315489547</v>
       </c>
       <c r="U29" t="n">
-        <v>3544.135754797116</v>
+        <v>3544.135754797117</v>
       </c>
       <c r="V29" t="n">
         <v>3274.487538527131</v>
@@ -6531,13 +6531,13 @@
         <v>358.2582949316023</v>
       </c>
       <c r="G30" t="n">
-        <v>220.9404362636037</v>
+        <v>220.9404362636038</v>
       </c>
       <c r="H30" t="n">
         <v>121.2175848034099</v>
       </c>
       <c r="I30" t="n">
-        <v>79.56615295301889</v>
+        <v>79.56615295301891</v>
       </c>
       <c r="J30" t="n">
         <v>209.664861247154</v>
@@ -6549,10 +6549,10 @@
         <v>1089.296537863044</v>
       </c>
       <c r="M30" t="n">
-        <v>1534.143755149103</v>
+        <v>1299.472923397321</v>
       </c>
       <c r="N30" t="n">
-        <v>1764.291529124866</v>
+        <v>1529.620697373084</v>
       </c>
       <c r="O30" t="n">
         <v>1952.611984096719</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>335.9434305145866</v>
+        <v>514.1895313805119</v>
       </c>
       <c r="C31" t="n">
-        <v>335.9434305145866</v>
+        <v>406.6680195261901</v>
       </c>
       <c r="D31" t="n">
-        <v>251.539851886152</v>
+        <v>317.9660511874396</v>
       </c>
       <c r="E31" t="n">
-        <v>165.041429377344</v>
+        <v>231.4676286786317</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56615295301889</v>
+        <v>231.4676286786317</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56615295301889</v>
+        <v>231.4676286786317</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56615295301889</v>
+        <v>139.5484963291534</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56615295301889</v>
+        <v>79.56615295301891</v>
       </c>
       <c r="J31" t="n">
         <v>129.4165359538609</v>
       </c>
       <c r="K31" t="n">
-        <v>302.4505851654944</v>
+        <v>302.4505851654945</v>
       </c>
       <c r="L31" t="n">
         <v>562.5678474269041</v>
       </c>
       <c r="M31" t="n">
-        <v>843.942099766644</v>
+        <v>843.9420997666439</v>
       </c>
       <c r="N31" t="n">
-        <v>1125.491761277735</v>
+        <v>1125.491761277734</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.127133573058</v>
+        <v>1374.127133573057</v>
       </c>
       <c r="P31" t="n">
-        <v>1572.044385864405</v>
+        <v>1572.044385864404</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.155291240922</v>
@@ -6655,16 +6655,16 @@
         <v>1044.02442019135</v>
       </c>
       <c r="V31" t="n">
-        <v>850.7546030590485</v>
+        <v>850.754603059048</v>
       </c>
       <c r="W31" t="n">
-        <v>622.7521040956731</v>
+        <v>673.5674394504567</v>
       </c>
       <c r="X31" t="n">
-        <v>456.1772242712411</v>
+        <v>673.5674394504567</v>
       </c>
       <c r="Y31" t="n">
-        <v>456.1772242712411</v>
+        <v>514.1895313805119</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1858.885260670322</v>
+        <v>1980.597391378653</v>
       </c>
       <c r="C32" t="n">
-        <v>1573.576093386697</v>
+        <v>1695.288224095028</v>
       </c>
       <c r="D32" t="n">
-        <v>1298.963744436734</v>
+        <v>1420.675875145064</v>
       </c>
       <c r="E32" t="n">
-        <v>996.8288414952763</v>
+        <v>1034.88762254682</v>
       </c>
       <c r="F32" t="n">
-        <v>669.4962863624555</v>
+        <v>707.5550674139993</v>
       </c>
       <c r="G32" t="n">
         <v>336.2927478660836</v>
@@ -6695,7 +6695,7 @@
         <v>104.0876214830308</v>
       </c>
       <c r="I32" t="n">
-        <v>76.94952645540856</v>
+        <v>76.94952645540857</v>
       </c>
       <c r="J32" t="n">
         <v>284.7962555853273</v>
@@ -6707,43 +6707,43 @@
         <v>1305.574338569869</v>
       </c>
       <c r="M32" t="n">
-        <v>1863.028788903363</v>
+        <v>1848.813545176233</v>
       </c>
       <c r="N32" t="n">
-        <v>2530.715522512991</v>
+        <v>2516.50027878586</v>
       </c>
       <c r="O32" t="n">
-        <v>3116.005533863234</v>
+        <v>3101.790290136103</v>
       </c>
       <c r="P32" t="n">
-        <v>3577.862634480142</v>
+        <v>3563.647390753012</v>
       </c>
       <c r="Q32" t="n">
-        <v>3847.476322770428</v>
+        <v>3833.261079043297</v>
       </c>
       <c r="R32" t="n">
-        <v>3847.476322770428</v>
+        <v>3847.476322770429</v>
       </c>
       <c r="S32" t="n">
-        <v>3696.522773414562</v>
+        <v>3780.17612307135</v>
       </c>
       <c r="T32" t="n">
-        <v>3482.73364846186</v>
+        <v>3650.040347775434</v>
       </c>
       <c r="U32" t="n">
-        <v>3274.654985301087</v>
+        <v>3480.020465666204</v>
       </c>
       <c r="V32" t="n">
-        <v>3027.245447614303</v>
+        <v>3148.957578322634</v>
       </c>
       <c r="W32" t="n">
-        <v>2758.130142000975</v>
+        <v>2879.842272709306</v>
       </c>
       <c r="X32" t="n">
-        <v>2468.317733396682</v>
+        <v>2590.029864105013</v>
       </c>
       <c r="Y32" t="n">
-        <v>2161.831751077657</v>
+        <v>2283.543881785988</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>218.3238097659934</v>
       </c>
       <c r="H33" t="n">
-        <v>118.6009583057995</v>
+        <v>118.6009583057996</v>
       </c>
       <c r="I33" t="n">
-        <v>76.94952645540856</v>
+        <v>76.94952645540857</v>
       </c>
       <c r="J33" t="n">
-        <v>207.0482347495436</v>
+        <v>82.2181097625389</v>
       </c>
       <c r="K33" t="n">
-        <v>556.0284921564092</v>
+        <v>431.1983671694045</v>
       </c>
       <c r="L33" t="n">
-        <v>1086.679911365434</v>
+        <v>961.8497863784289</v>
       </c>
       <c r="M33" t="n">
-        <v>1531.527128651492</v>
+        <v>1172.026171912706</v>
       </c>
       <c r="N33" t="n">
-        <v>1761.674902627255</v>
+        <v>1402.173945888469</v>
       </c>
       <c r="O33" t="n">
         <v>1949.995357599109</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>548.4660342310118</v>
+        <v>548.4660342310112</v>
       </c>
       <c r="C34" t="n">
-        <v>463.1832009598916</v>
+        <v>463.1832009598911</v>
       </c>
       <c r="D34" t="n">
-        <v>396.7199112043427</v>
+        <v>396.7199112043421</v>
       </c>
       <c r="E34" t="n">
-        <v>332.4601672787363</v>
+        <v>332.4601672787358</v>
       </c>
       <c r="F34" t="n">
-        <v>269.2235694376128</v>
+        <v>269.2235694376122</v>
       </c>
       <c r="G34" t="n">
-        <v>184.3736450146181</v>
+        <v>184.3736450146176</v>
       </c>
       <c r="H34" t="n">
-        <v>114.6931912483414</v>
+        <v>114.6931912483412</v>
       </c>
       <c r="I34" t="n">
-        <v>76.94952645540856</v>
+        <v>76.94952645540857</v>
       </c>
       <c r="J34" t="n">
-        <v>148.5960383356464</v>
+        <v>148.5960383356463</v>
       </c>
       <c r="K34" t="n">
-        <v>343.4262164266759</v>
+        <v>343.4262164266755</v>
       </c>
       <c r="L34" t="n">
-        <v>625.3396075674813</v>
+        <v>625.3396075674806</v>
       </c>
       <c r="M34" t="n">
-        <v>928.5099887866171</v>
+        <v>928.5099887866165</v>
       </c>
       <c r="N34" t="n">
-        <v>1231.855779177104</v>
+        <v>1231.855779177103</v>
       </c>
       <c r="O34" t="n">
-        <v>1502.287280351823</v>
+        <v>1502.287280351822</v>
       </c>
       <c r="P34" t="n">
-        <v>1722.000661522566</v>
+        <v>1722.000661522565</v>
       </c>
       <c r="Q34" t="n">
-        <v>1815.907695778479</v>
+        <v>1815.907695778478</v>
       </c>
       <c r="R34" t="n">
-        <v>1773.740009556805</v>
+        <v>1773.740009556804</v>
       </c>
       <c r="S34" t="n">
-        <v>1651.758033219717</v>
+        <v>1651.758033219716</v>
       </c>
       <c r="T34" t="n">
-        <v>1510.224716504074</v>
+        <v>1510.224716504073</v>
       </c>
       <c r="U34" t="n">
-        <v>1304.731539061713</v>
+        <v>1304.731539061712</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.700400512613</v>
+        <v>1133.700400512612</v>
       </c>
       <c r="W34" t="n">
-        <v>927.9365801324392</v>
+        <v>927.9365801324383</v>
       </c>
       <c r="X34" t="n">
-        <v>783.6003788912085</v>
+        <v>783.6003788912076</v>
       </c>
       <c r="Y34" t="n">
-        <v>646.4611494044648</v>
+        <v>646.4611494044642</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>72.75839420305923</v>
       </c>
       <c r="J35" t="n">
-        <v>157.2167853382596</v>
+        <v>280.605123332978</v>
       </c>
       <c r="K35" t="n">
-        <v>589.4699578453825</v>
+        <v>712.8582958401009</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.994868322801</v>
+        <v>1301.38320631752</v>
       </c>
       <c r="M35" t="n">
-        <v>1849.44877331207</v>
+        <v>1653.472176285896</v>
       </c>
       <c r="N35" t="n">
-        <v>2517.135506921698</v>
+        <v>2321.158909895524</v>
       </c>
       <c r="O35" t="n">
-        <v>3102.425518271941</v>
+        <v>2906.448921245767</v>
       </c>
       <c r="P35" t="n">
-        <v>3564.28261888885</v>
+        <v>3368.306021862676</v>
       </c>
       <c r="Q35" t="n">
-        <v>3623.70446642583</v>
+        <v>3637.919710152961</v>
       </c>
       <c r="R35" t="n">
         <v>3637.919710152961</v>
@@ -7023,10 +7023,10 @@
         <v>1082.488779113084</v>
       </c>
       <c r="M36" t="n">
-        <v>1527.335996399143</v>
+        <v>1292.665164647362</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.483770374906</v>
+        <v>1522.812938623124</v>
       </c>
       <c r="O36" t="n">
         <v>1945.804225346759</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.2749019786623</v>
+        <v>544.2749019786627</v>
       </c>
       <c r="C37" t="n">
-        <v>458.9920687075422</v>
+        <v>458.9920687075425</v>
       </c>
       <c r="D37" t="n">
-        <v>392.5287789519932</v>
+        <v>392.5287789519936</v>
       </c>
       <c r="E37" t="n">
-        <v>328.2690350263869</v>
+        <v>328.2690350263872</v>
       </c>
       <c r="F37" t="n">
-        <v>265.0324371852633</v>
+        <v>265.0324371852636</v>
       </c>
       <c r="G37" t="n">
-        <v>180.1825127622687</v>
+        <v>180.182512762269</v>
       </c>
       <c r="H37" t="n">
         <v>110.5020589959921</v>
@@ -7093,22 +7093,22 @@
         <v>72.75839420305923</v>
       </c>
       <c r="J37" t="n">
-        <v>144.4049060832971</v>
+        <v>144.404906083297</v>
       </c>
       <c r="K37" t="n">
-        <v>339.2350841743265</v>
+        <v>339.2350841743264</v>
       </c>
       <c r="L37" t="n">
-        <v>621.148475315132</v>
+        <v>621.1484753151317</v>
       </c>
       <c r="M37" t="n">
-        <v>924.3188565342678</v>
+        <v>924.3188565342674</v>
       </c>
       <c r="N37" t="n">
         <v>1227.664646924754</v>
       </c>
       <c r="O37" t="n">
-        <v>1498.096148099472</v>
+        <v>1498.096148099473</v>
       </c>
       <c r="P37" t="n">
         <v>1717.809529270216</v>
@@ -7126,19 +7126,19 @@
         <v>1506.033584251724</v>
       </c>
       <c r="U37" t="n">
-        <v>1300.540406809363</v>
+        <v>1300.540406809364</v>
       </c>
       <c r="V37" t="n">
-        <v>1129.509268260263</v>
+        <v>1129.509268260264</v>
       </c>
       <c r="W37" t="n">
-        <v>923.7454478800892</v>
+        <v>923.7454478800896</v>
       </c>
       <c r="X37" t="n">
-        <v>779.4092466388586</v>
+        <v>779.409246638859</v>
       </c>
       <c r="Y37" t="n">
-        <v>642.2700171521153</v>
+        <v>642.2700171521157</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1854.694128417974</v>
+        <v>1854.694128417973</v>
       </c>
       <c r="C38" t="n">
-        <v>1569.384961134349</v>
+        <v>1569.384961134348</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.772612184385</v>
+        <v>1294.772612184384</v>
       </c>
       <c r="E38" t="n">
-        <v>992.6377092429275</v>
+        <v>992.637709242927</v>
       </c>
       <c r="F38" t="n">
-        <v>665.3051541101067</v>
+        <v>665.3051541101063</v>
       </c>
       <c r="G38" t="n">
         <v>332.1016156137343</v>
       </c>
       <c r="H38" t="n">
-        <v>99.89648923068148</v>
+        <v>99.8964892306815</v>
       </c>
       <c r="I38" t="n">
         <v>72.75839420305924</v>
       </c>
       <c r="J38" t="n">
-        <v>113.199474312625</v>
+        <v>280.6051233329781</v>
       </c>
       <c r="K38" t="n">
-        <v>545.452646819748</v>
+        <v>712.8582958401009</v>
       </c>
       <c r="L38" t="n">
-        <v>1133.977557297167</v>
+        <v>1301.38320631752</v>
       </c>
       <c r="M38" t="n">
-        <v>1805.431462286436</v>
+        <v>1639.256932558765</v>
       </c>
       <c r="N38" t="n">
-        <v>2473.118195896063</v>
+        <v>2306.943666168393</v>
       </c>
       <c r="O38" t="n">
-        <v>3058.408207246306</v>
+        <v>2892.233677518636</v>
       </c>
       <c r="P38" t="n">
-        <v>3520.265307863215</v>
+        <v>3354.090778135545</v>
       </c>
       <c r="Q38" t="n">
-        <v>3623.70446642583</v>
+        <v>3623.704466425831</v>
       </c>
       <c r="R38" t="n">
         <v>3637.919710152962</v>
       </c>
       <c r="S38" t="n">
-        <v>3570.619510453882</v>
+        <v>3570.619510453883</v>
       </c>
       <c r="T38" t="n">
         <v>3440.483735157967</v>
@@ -7211,13 +7211,13 @@
         <v>3023.054315361954</v>
       </c>
       <c r="W38" t="n">
-        <v>2753.939009748627</v>
+        <v>2753.939009748626</v>
       </c>
       <c r="X38" t="n">
-        <v>2464.126601144334</v>
+        <v>2464.126601144333</v>
       </c>
       <c r="Y38" t="n">
-        <v>2157.640618825309</v>
+        <v>2157.640618825308</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>1082.488779113084</v>
       </c>
       <c r="M39" t="n">
-        <v>1527.335996399143</v>
+        <v>1292.665164647362</v>
       </c>
       <c r="N39" t="n">
-        <v>1757.483770374906</v>
+        <v>1522.812938623124</v>
       </c>
       <c r="O39" t="n">
         <v>1945.804225346759</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.2749019786625</v>
+        <v>544.2749019786623</v>
       </c>
       <c r="C40" t="n">
-        <v>458.9920687075423</v>
+        <v>458.9920687075421</v>
       </c>
       <c r="D40" t="n">
-        <v>392.5287789519934</v>
+        <v>392.5287789519932</v>
       </c>
       <c r="E40" t="n">
-        <v>328.269035026387</v>
+        <v>328.2690350263868</v>
       </c>
       <c r="F40" t="n">
-        <v>265.0324371852635</v>
+        <v>265.0324371852632</v>
       </c>
       <c r="G40" t="n">
-        <v>180.1825127622689</v>
+        <v>180.1825127622685</v>
       </c>
       <c r="H40" t="n">
-        <v>110.5020589959921</v>
+        <v>110.5020589959918</v>
       </c>
       <c r="I40" t="n">
         <v>72.75839420305924</v>
@@ -7333,13 +7333,13 @@
         <v>144.4049060832971</v>
       </c>
       <c r="K40" t="n">
-        <v>339.2350841743266</v>
+        <v>339.2350841743265</v>
       </c>
       <c r="L40" t="n">
-        <v>621.1484753151321</v>
+        <v>621.1484753151318</v>
       </c>
       <c r="M40" t="n">
-        <v>924.3188565342679</v>
+        <v>924.3188565342675</v>
       </c>
       <c r="N40" t="n">
         <v>1227.664646924754</v>
@@ -7360,7 +7360,7 @@
         <v>1647.566900967367</v>
       </c>
       <c r="T40" t="n">
-        <v>1506.033584251724</v>
+        <v>1506.033584251723</v>
       </c>
       <c r="U40" t="n">
         <v>1300.540406809364</v>
@@ -7369,13 +7369,13 @@
         <v>1129.509268260263</v>
       </c>
       <c r="W40" t="n">
-        <v>923.7454478800894</v>
+        <v>923.7454478800895</v>
       </c>
       <c r="X40" t="n">
-        <v>779.4092466388588</v>
+        <v>779.4092466388587</v>
       </c>
       <c r="Y40" t="n">
-        <v>642.2700171521154</v>
+        <v>642.2700171521153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1854.694128417972</v>
+        <v>1854.694128417973</v>
       </c>
       <c r="C41" t="n">
         <v>1569.384961134348</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.772612184384</v>
+        <v>1294.772612184385</v>
       </c>
       <c r="E41" t="n">
-        <v>992.6377092429262</v>
+        <v>992.637709242927</v>
       </c>
       <c r="F41" t="n">
-        <v>665.3051541101054</v>
+        <v>665.3051541101063</v>
       </c>
       <c r="G41" t="n">
-        <v>332.1016156137334</v>
+        <v>332.1016156137343</v>
       </c>
       <c r="H41" t="n">
-        <v>99.89648923068155</v>
+        <v>99.8964892306815</v>
       </c>
       <c r="I41" t="n">
         <v>72.75839420305924</v>
       </c>
       <c r="J41" t="n">
-        <v>280.6051233329781</v>
+        <v>157.2167853382605</v>
       </c>
       <c r="K41" t="n">
-        <v>712.8582958401009</v>
+        <v>589.4699578453834</v>
       </c>
       <c r="L41" t="n">
-        <v>1301.38320631752</v>
+        <v>1177.994868322802</v>
       </c>
       <c r="M41" t="n">
-        <v>1653.472176285897</v>
+        <v>1849.448773312071</v>
       </c>
       <c r="N41" t="n">
-        <v>2321.158909895525</v>
+        <v>2517.135506921699</v>
       </c>
       <c r="O41" t="n">
-        <v>2906.448921245767</v>
+        <v>3102.425518271942</v>
       </c>
       <c r="P41" t="n">
-        <v>3368.306021862676</v>
+        <v>3564.282618888851</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.919710152962</v>
+        <v>3623.704466425831</v>
       </c>
       <c r="R41" t="n">
         <v>3637.919710152962</v>
       </c>
       <c r="S41" t="n">
-        <v>3570.619510453882</v>
+        <v>3570.619510453883</v>
       </c>
       <c r="T41" t="n">
         <v>3440.483735157967</v>
@@ -7491,22 +7491,22 @@
         <v>202.8571024971943</v>
       </c>
       <c r="K42" t="n">
-        <v>551.8373599040599</v>
+        <v>290.0167752616072</v>
       </c>
       <c r="L42" t="n">
-        <v>1082.488779113084</v>
+        <v>820.6681944706315</v>
       </c>
       <c r="M42" t="n">
-        <v>1292.665164647362</v>
+        <v>1030.844580004909</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.812938623124</v>
+        <v>1735.54130458079</v>
       </c>
       <c r="O42" t="n">
-        <v>1945.804225346759</v>
+        <v>2153.78074020525</v>
       </c>
       <c r="P42" t="n">
-        <v>2392.893067796517</v>
+        <v>2600.869582655008</v>
       </c>
       <c r="Q42" t="n">
         <v>2639.062349498757</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.274901978663</v>
+        <v>544.2749019786622</v>
       </c>
       <c r="C43" t="n">
-        <v>458.9920687075428</v>
+        <v>458.9920687075421</v>
       </c>
       <c r="D43" t="n">
-        <v>392.5287789519938</v>
+        <v>392.5287789519932</v>
       </c>
       <c r="E43" t="n">
-        <v>328.2690350263874</v>
+        <v>328.2690350263868</v>
       </c>
       <c r="F43" t="n">
-        <v>265.0324371852637</v>
+        <v>265.0324371852632</v>
       </c>
       <c r="G43" t="n">
-        <v>180.182512762269</v>
+        <v>180.1825127622685</v>
       </c>
       <c r="H43" t="n">
-        <v>110.5020589959922</v>
+        <v>110.5020589959918</v>
       </c>
       <c r="I43" t="n">
         <v>72.75839420305924</v>
       </c>
       <c r="J43" t="n">
-        <v>144.404906083297</v>
+        <v>144.4049060832971</v>
       </c>
       <c r="K43" t="n">
         <v>339.2350841743263</v>
       </c>
       <c r="L43" t="n">
-        <v>621.1484753151318</v>
+        <v>621.1484753151319</v>
       </c>
       <c r="M43" t="n">
-        <v>924.3188565342675</v>
+        <v>924.3188565342673</v>
       </c>
       <c r="N43" t="n">
         <v>1227.664646924754</v>
       </c>
       <c r="O43" t="n">
-        <v>1498.096148099473</v>
+        <v>1498.096148099472</v>
       </c>
       <c r="P43" t="n">
-        <v>1717.809529270216</v>
+        <v>1717.809529270215</v>
       </c>
       <c r="Q43" t="n">
-        <v>1811.71656352613</v>
+        <v>1811.716563526129</v>
       </c>
       <c r="R43" t="n">
         <v>1769.548877304456</v>
       </c>
       <c r="S43" t="n">
-        <v>1647.566900967368</v>
+        <v>1647.566900967367</v>
       </c>
       <c r="T43" t="n">
-        <v>1506.033584251725</v>
+        <v>1506.033584251724</v>
       </c>
       <c r="U43" t="n">
         <v>1300.540406809364</v>
       </c>
       <c r="V43" t="n">
-        <v>1129.509268260264</v>
+        <v>1129.509268260263</v>
       </c>
       <c r="W43" t="n">
-        <v>923.7454478800901</v>
+        <v>923.7454478800892</v>
       </c>
       <c r="X43" t="n">
-        <v>779.4092466388594</v>
+        <v>779.4092466388586</v>
       </c>
       <c r="Y43" t="n">
-        <v>642.270017152116</v>
+        <v>642.2700171521152</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7628,25 @@
         <v>1569.384961134348</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.772612184384</v>
+        <v>1294.772612184385</v>
       </c>
       <c r="E44" t="n">
-        <v>992.637709242927</v>
+        <v>992.6377092429275</v>
       </c>
       <c r="F44" t="n">
-        <v>665.3051541101063</v>
+        <v>665.3051541101067</v>
       </c>
       <c r="G44" t="n">
-        <v>332.1016156137343</v>
+        <v>332.1016156137348</v>
       </c>
       <c r="H44" t="n">
-        <v>99.89648923068147</v>
+        <v>99.8964892306815</v>
       </c>
       <c r="I44" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305924</v>
       </c>
       <c r="J44" t="n">
-        <v>280.605123332978</v>
+        <v>280.6051233329781</v>
       </c>
       <c r="K44" t="n">
         <v>712.8582958401009</v>
@@ -7655,43 +7655,43 @@
         <v>1301.38320631752</v>
       </c>
       <c r="M44" t="n">
-        <v>1653.472176285896</v>
+        <v>1972.837111306789</v>
       </c>
       <c r="N44" t="n">
-        <v>2321.158909895524</v>
+        <v>2625.52438725816</v>
       </c>
       <c r="O44" t="n">
-        <v>2906.448921245767</v>
+        <v>3210.814398608403</v>
       </c>
       <c r="P44" t="n">
-        <v>3368.306021862676</v>
+        <v>3354.090778135544</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.919710152961</v>
+        <v>3623.70446642583</v>
       </c>
       <c r="R44" t="n">
-        <v>3637.919710152961</v>
+        <v>3637.919710152962</v>
       </c>
       <c r="S44" t="n">
-        <v>3570.619510453882</v>
+        <v>3570.619510453883</v>
       </c>
       <c r="T44" t="n">
-        <v>3440.483735157967</v>
+        <v>3440.483735157968</v>
       </c>
       <c r="U44" t="n">
-        <v>3270.463853048737</v>
+        <v>3270.463853048738</v>
       </c>
       <c r="V44" t="n">
-        <v>3023.054315361953</v>
+        <v>3023.054315361954</v>
       </c>
       <c r="W44" t="n">
-        <v>2753.939009748626</v>
+        <v>2753.939009748627</v>
       </c>
       <c r="X44" t="n">
-        <v>2464.126601144333</v>
+        <v>2464.126601144334</v>
       </c>
       <c r="Y44" t="n">
-        <v>2157.640618825308</v>
+        <v>2157.640618825309</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>114.4098260534502</v>
       </c>
       <c r="I45" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305924</v>
       </c>
       <c r="J45" t="n">
-        <v>202.8571024971943</v>
+        <v>78.02697751018957</v>
       </c>
       <c r="K45" t="n">
-        <v>551.8373599040599</v>
+        <v>427.0072349170552</v>
       </c>
       <c r="L45" t="n">
-        <v>1082.488779113084</v>
+        <v>957.6586541260797</v>
       </c>
       <c r="M45" t="n">
-        <v>1292.665164647362</v>
+        <v>1628.883052772857</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.812938623124</v>
+        <v>1890.814730102972</v>
       </c>
       <c r="O45" t="n">
-        <v>1945.804225346759</v>
+        <v>2469.058881158788</v>
       </c>
       <c r="P45" t="n">
-        <v>2392.893067796517</v>
+        <v>2600.869582655008</v>
       </c>
       <c r="Q45" t="n">
         <v>2639.062349498757</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>544.2749019786625</v>
+        <v>544.2749019786626</v>
       </c>
       <c r="C46" t="n">
-        <v>458.9920687075423</v>
+        <v>458.9920687075424</v>
       </c>
       <c r="D46" t="n">
-        <v>392.5287789519934</v>
+        <v>392.5287789519935</v>
       </c>
       <c r="E46" t="n">
-        <v>328.269035026387</v>
+        <v>328.2690350263871</v>
       </c>
       <c r="F46" t="n">
         <v>265.0324371852635</v>
       </c>
       <c r="G46" t="n">
-        <v>180.1825127622688</v>
+        <v>180.1825127622689</v>
       </c>
       <c r="H46" t="n">
         <v>110.5020589959921</v>
       </c>
       <c r="I46" t="n">
-        <v>72.75839420305923</v>
+        <v>72.75839420305924</v>
       </c>
       <c r="J46" t="n">
-        <v>144.404906083297</v>
+        <v>144.4049060832971</v>
       </c>
       <c r="K46" t="n">
-        <v>339.2350841743264</v>
+        <v>339.2350841743265</v>
       </c>
       <c r="L46" t="n">
-        <v>621.1484753151319</v>
+        <v>621.1484753151323</v>
       </c>
       <c r="M46" t="n">
-        <v>924.3188565342674</v>
+        <v>924.318856534268</v>
       </c>
       <c r="N46" t="n">
         <v>1227.664646924754</v>
@@ -7828,7 +7828,7 @@
         <v>1811.716563526129</v>
       </c>
       <c r="R46" t="n">
-        <v>1769.548877304455</v>
+        <v>1769.548877304456</v>
       </c>
       <c r="S46" t="n">
         <v>1647.566900967367</v>
@@ -7837,19 +7837,19 @@
         <v>1506.033584251724</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.540406809363</v>
+        <v>1300.540406809364</v>
       </c>
       <c r="V46" t="n">
         <v>1129.509268260263</v>
       </c>
       <c r="W46" t="n">
-        <v>923.7454478800889</v>
+        <v>923.7454478800895</v>
       </c>
       <c r="X46" t="n">
-        <v>779.4092466388583</v>
+        <v>779.4092466388589</v>
       </c>
       <c r="Y46" t="n">
-        <v>642.2700171521154</v>
+        <v>642.2700171521155</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>144.4396646861023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250447</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>226.6880767567238</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N5" t="n">
         <v>236.2891093383024</v>
@@ -8231,7 +8231,7 @@
         <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N6" t="n">
         <v>137.9399377950766</v>
@@ -8310,10 +8310,10 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>268.9969405584315</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,7 +8535,7 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8544,13 +8544,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>126.9226900373871</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.46193032892464</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>51.35758782537462</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>214.0192702204484</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>138.8704788234358</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>402.5102472188802</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>424.542661480095</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.068160855668</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>107.5045035199768</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>308.9944452395927</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>95.0703710950051</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>51.35758782537462</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>142.1765257471779</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>128.539215153624</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>448.7213982088698</v>
       </c>
       <c r="N20" t="n">
-        <v>100.3972489089293</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>51.35758782537462</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>214.0192702204484</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>237.0412441937186</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9641,10 +9641,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>80.7115390473956</v>
       </c>
       <c r="M23" t="n">
-        <v>112.5638579897776</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298135</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>237.0412441937187</v>
+        <v>447.0019837935613</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.7164198729818</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>237.0412441937187</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>237.0412441937186</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>334.36256919407</v>
+        <v>320.0037371464633</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>51.35758782537462</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>237.0412441937185</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>363.1322795341273</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.46193032892381</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>126.9226900373853</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>51.35758782537462</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>237.0412441937187</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>237.0412441937186</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>112.5638579897785</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.46193032892464</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>237.0412441937187</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>237.0412441937186</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>44.46193032892472</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>126.9226900373862</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.35758782537462</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>237.0412441937186</v>
+        <v>232.2413945985931</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>126.9226900373853</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>422.1959570804125</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>51.35758782537462</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>32.10495288318387</v>
       </c>
       <c r="O45" t="n">
-        <v>237.0412441937186</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>185.9178562466998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>332.6650786349996</v>
+        <v>332.6650786349997</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>273.5834234985825</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>87.66556725188164</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>157.814017196254</v>
       </c>
       <c r="C13" t="n">
-        <v>145.2288581129445</v>
+        <v>145.2288581129446</v>
       </c>
       <c r="D13" t="n">
-        <v>126.597510032529</v>
+        <v>126.5975100325291</v>
       </c>
       <c r="E13" t="n">
-        <v>124.4159996608858</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4030850372479</v>
+        <v>85.69614769343765</v>
       </c>
       <c r="G13" t="n">
-        <v>81.11035917657725</v>
+        <v>144.8002783533003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.16508131953918</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>264.2370988424726</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>230.1196803381447</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>264.5050353509077</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>332.6650786349996</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>59.51725422660323</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>390.6703562859439</v>
       </c>
       <c r="H14" t="n">
-        <v>290.6819282937578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>229.1185364626726</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>305.7342954844516</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>215.5781458476373</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>157.814017196254</v>
       </c>
       <c r="C16" t="n">
-        <v>145.2288581129445</v>
+        <v>145.2288581129446</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>126.5975100325291</v>
       </c>
       <c r="E16" t="n">
-        <v>124.4159996608858</v>
+        <v>124.4159996608859</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4030850372479</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>144.8002783533002</v>
+        <v>144.8002783533003</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>129.7825024031496</v>
       </c>
       <c r="I16" t="n">
-        <v>98.16508131953911</v>
+        <v>98.16508131953917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.06277165571721</v>
+        <v>102.5448625339925</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>200.9168367230224</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>230.1196803381447</v>
+        <v>223.5774987844623</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.601599019020796e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.4462967357785</v>
       </c>
       <c r="D28" t="n">
-        <v>70.76003983440604</v>
+        <v>87.81494865536303</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.13998896101852</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.76230115682644</v>
+        <v>63.76230115682647</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>225.4545374653065</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>225.7224739737417</v>
       </c>
       <c r="X28" t="n">
-        <v>164.9091310261878</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.031455819088</v>
       </c>
       <c r="C31" t="n">
-        <v>106.4462967357785</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.2554058132127</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>84.62052366008191</v>
       </c>
       <c r="G31" t="n">
         <v>106.0177169761342</v>
       </c>
       <c r="H31" t="n">
-        <v>90.99994102598347</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>59.38251994237309</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>50.30718200123599</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>164.9091310261878</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.7841289892454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307639.1269496695</v>
+        <v>307639.1269496696</v>
       </c>
       <c r="C2" t="n">
         <v>307639.1269496696</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>267622.5375013367</v>
+        <v>267622.5375013364</v>
       </c>
       <c r="F2" t="n">
-        <v>267622.5375013362</v>
+        <v>267622.5375013365</v>
       </c>
       <c r="G2" t="n">
         <v>307890.663699106</v>
@@ -26332,10 +26332,10 @@
         <v>307890.6636991056</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.663699106</v>
       </c>
       <c r="J2" t="n">
-        <v>303166.6896137614</v>
+        <v>303166.6896137615</v>
       </c>
       <c r="K2" t="n">
         <v>303166.6896137614</v>
@@ -26344,16 +26344,16 @@
         <v>307890.6636991064</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.663699106</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991056</v>
+        <v>307890.663699106</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991057</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>10160.03361190872</v>
       </c>
       <c r="E3" t="n">
-        <v>799828.519074694</v>
+        <v>799828.5190746941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48639.08253962844</v>
+        <v>48639.08253962836</v>
       </c>
       <c r="H3" t="n">
-        <v>3.021374298698698e-11</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24065.528442376</v>
+        <v>24065.52844237591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66252.11597752408</v>
+        <v>66252.11597752402</v>
       </c>
       <c r="M3" t="n">
-        <v>203725.9888651604</v>
+        <v>203725.9888651605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.336950650977542</v>
+        <v>1.336950650971858</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>403521.8812643668</v>
       </c>
       <c r="D4" t="n">
-        <v>398727.7855252126</v>
+        <v>398727.7855252125</v>
       </c>
       <c r="E4" t="n">
         <v>101490.3988798989</v>
@@ -26430,7 +26430,7 @@
         <v>101490.3988798989</v>
       </c>
       <c r="G4" t="n">
-        <v>162930.4199646754</v>
+        <v>162930.4199646752</v>
       </c>
       <c r="H4" t="n">
         <v>162930.4199646754</v>
@@ -26454,10 +26454,10 @@
         <v>162930.4199646754</v>
       </c>
       <c r="O4" t="n">
-        <v>162930.4199646753</v>
+        <v>162930.4199646754</v>
       </c>
       <c r="P4" t="n">
-        <v>162930.4199646753</v>
+        <v>162930.4199646754</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>71324.74425455127</v>
+        <v>71324.74425455129</v>
       </c>
       <c r="F5" t="n">
-        <v>71324.74425455127</v>
+        <v>71324.74425455129</v>
       </c>
       <c r="G5" t="n">
-        <v>76436.04304208129</v>
+        <v>76436.04304208131</v>
       </c>
       <c r="H5" t="n">
-        <v>76436.04304208129</v>
+        <v>76436.04304208132</v>
       </c>
       <c r="I5" t="n">
         <v>76436.04304208129</v>
       </c>
       <c r="J5" t="n">
+        <v>79759.05205693757</v>
+      </c>
+      <c r="K5" t="n">
         <v>79759.05205693759</v>
       </c>
-      <c r="K5" t="n">
-        <v>79759.05205693758</v>
-      </c>
       <c r="L5" t="n">
-        <v>79621.30355386678</v>
+        <v>79621.3035538668</v>
       </c>
       <c r="M5" t="n">
         <v>76436.04304208129</v>
       </c>
       <c r="N5" t="n">
-        <v>76436.04304208129</v>
+        <v>76436.04304208131</v>
       </c>
       <c r="O5" t="n">
-        <v>76436.04304208129</v>
+        <v>76436.04304208131</v>
       </c>
       <c r="P5" t="n">
         <v>76436.04304208129</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132232.7389728929</v>
+        <v>-132234.4158845557</v>
       </c>
       <c r="C6" t="n">
-        <v>-129928.4178957933</v>
+        <v>-129930.0948074562</v>
       </c>
       <c r="D6" t="n">
         <v>-137031.455157295</v>
       </c>
       <c r="E6" t="n">
-        <v>-705021.1247078074</v>
+        <v>-705289.5788824596</v>
       </c>
       <c r="F6" t="n">
-        <v>94807.39436688609</v>
+        <v>94538.94019223454</v>
       </c>
       <c r="G6" t="n">
-        <v>19885.11815272094</v>
+        <v>19885.1181527211</v>
       </c>
       <c r="H6" t="n">
-        <v>68524.20069234891</v>
+        <v>68524.20069234879</v>
       </c>
       <c r="I6" t="n">
-        <v>68524.20069234923</v>
+        <v>68524.20069234955</v>
       </c>
       <c r="J6" t="n">
-        <v>51244.09849054462</v>
+        <v>51212.60532997589</v>
       </c>
       <c r="K6" t="n">
-        <v>75309.62693292067</v>
+        <v>75278.13377235163</v>
       </c>
       <c r="L6" t="n">
         <v>3758.27513661905</v>
       </c>
       <c r="M6" t="n">
-        <v>-135201.7881728111</v>
+        <v>-135201.7881728112</v>
       </c>
       <c r="N6" t="n">
-        <v>68524.20069234891</v>
+        <v>68524.20069234927</v>
       </c>
       <c r="O6" t="n">
-        <v>68522.86374169827</v>
+        <v>68522.86374169878</v>
       </c>
       <c r="P6" t="n">
-        <v>68524.20069234929</v>
+        <v>68524.20069234903</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="F2" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="G2" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="H2" t="n">
         <v>82.81681616021889</v>
       </c>
       <c r="I2" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J2" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="K2" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="L2" t="n">
         <v>82.81681616021891</v>
@@ -26719,13 +26719,13 @@
         <v>82.81681616021891</v>
       </c>
       <c r="N2" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="O2" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="P2" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>650.3365380726074</v>
       </c>
       <c r="G3" t="n">
-        <v>650.3365380726075</v>
+        <v>650.3365380726074</v>
       </c>
       <c r="H3" t="n">
         <v>650.3365380726074</v>
@@ -26796,40 +26796,40 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>909.4799275382404</v>
+        <v>909.4799275382408</v>
       </c>
       <c r="F4" t="n">
-        <v>909.4799275382404</v>
+        <v>909.4799275382408</v>
       </c>
       <c r="G4" t="n">
-        <v>909.4799275382404</v>
+        <v>909.4799275382408</v>
       </c>
       <c r="H4" t="n">
-        <v>909.4799275382403</v>
+        <v>909.4799275382408</v>
       </c>
       <c r="I4" t="n">
-        <v>909.4799275382403</v>
+        <v>909.4799275382402</v>
       </c>
       <c r="J4" t="n">
-        <v>994.5769119127363</v>
+        <v>994.576911912736</v>
       </c>
       <c r="K4" t="n">
-        <v>994.5769119127361</v>
+        <v>994.5769119127364</v>
       </c>
       <c r="L4" t="n">
-        <v>961.869080692607</v>
+        <v>961.8690806926072</v>
       </c>
       <c r="M4" t="n">
         <v>909.4799275382403</v>
       </c>
       <c r="N4" t="n">
+        <v>909.4799275382405</v>
+      </c>
+      <c r="O4" t="n">
+        <v>909.4799275382405</v>
+      </c>
+      <c r="P4" t="n">
         <v>909.4799275382404</v>
-      </c>
-      <c r="O4" t="n">
-        <v>909.4799275382404</v>
-      </c>
-      <c r="P4" t="n">
-        <v>909.4799275382403</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.79885317453555</v>
+        <v>60.79885317453545</v>
       </c>
       <c r="H2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001671188313792982</v>
+        <v>0.001671188313714822</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.8151449719051</v>
+        <v>82.81514497190503</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001671188313721927</v>
+        <v>0.001671188313714822</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>32.70783122012915</v>
       </c>
       <c r="E4" t="n">
-        <v>869.8960505763998</v>
+        <v>869.8960505764002</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>91.97303011620738</v>
+        <v>91.97303011620727</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>817.5068974220331</v>
+        <v>817.5068974220333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.79885317453555</v>
+        <v>60.79885317453545</v>
       </c>
       <c r="M2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001671188313792982</v>
+        <v>0.001671188313714822</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>32.70783122012915</v>
       </c>
       <c r="M4" t="n">
-        <v>869.8960505763998</v>
+        <v>869.8960505764002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>3.114653472833368</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,7 +27436,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>321.6958373808355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>152.3352506923594</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S3" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,7 +27515,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>227.4907573863837</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>87.30275902737334</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,25 +27576,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>245.2615975821166</v>
+        <v>248.8026629696351</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>358.3968460292961</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.934278125245373</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>131.2870960739112</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I6" t="n">
         <v>82.52058710970364</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>219.0653363392634</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>246.385153397878</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.4969998277444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>149.3940538379589</v>
       </c>
       <c r="J7" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,16 +27813,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>369.00487981343</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>309.1442181519412</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27901,7 +27901,7 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>49.81275588957449</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>171.5638082755731</v>
       </c>
     </row>
     <row r="10">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>143.4204825963432</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>152.722894615054</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="C11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="D11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="E11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="F11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="G11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="H11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="I11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="T11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="U11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="V11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="W11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="X11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="C13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="D13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="E13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="F13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="G13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="H13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="I13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="J13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="K13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="L13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="M13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="N13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="O13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="P13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="R13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="S13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="T13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="U13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="V13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="W13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="X13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="C14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="D14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="E14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="F14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="G14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="H14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="I14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="T14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="U14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="V14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="W14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="X14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="C16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="D16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="E16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="F16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="G16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="H16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="I16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="J16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="K16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="L16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="M16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="N16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="O16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="P16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="R16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="S16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="T16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="U16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="V16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="W16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="X16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.01796298568333</v>
+        <v>22.01796298568327</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="C17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="D17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="E17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="F17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="G17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="H17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="I17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="T17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="U17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="V17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="W17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="X17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="C19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="D19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="E19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="F19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="G19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="H19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="I19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="J19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="K19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="L19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="M19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="N19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="O19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="P19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="R19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="S19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="T19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="U19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="V19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="W19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="X19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.81681616021888</v>
+        <v>82.81681616021872</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>82.81681616021889</v>
       </c>
       <c r="J22" t="n">
-        <v>82.81681616021899</v>
+        <v>82.81681616021889</v>
       </c>
       <c r="K22" t="n">
         <v>82.81681616021889</v>
@@ -28998,7 +28998,7 @@
         <v>82.81681616021889</v>
       </c>
       <c r="P22" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021882</v>
       </c>
       <c r="Q22" t="n">
         <v>82.81681616021889</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="K25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="L25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="M25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="N25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="O25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="P25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="R25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="S25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="C26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="D26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="E26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="F26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="G26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="H26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="I26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="T26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="U26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="V26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="W26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="X26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="C28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="D28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="E28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="F28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="G28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="H28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="I28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="J28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="K28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="L28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="M28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="N28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="O28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="P28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="R28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="S28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="T28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="U28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="V28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="W28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="X28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="C29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="D29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="E29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="F29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="G29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="H29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="I29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="T29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="U29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="V29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="W29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="X29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="Y29" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="C31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="D31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="E31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="F31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="G31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="H31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="I31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="J31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="K31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="L31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="M31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="N31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="O31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="P31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="R31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="S31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="T31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="U31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="V31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="W31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="X31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.80052436284936</v>
+        <v>60.80052436284932</v>
       </c>
     </row>
     <row r="32">
@@ -29755,13 +29755,13 @@
         <v>82.81681616021891</v>
       </c>
       <c r="E32" t="n">
-        <v>82.81681616021891</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>82.81681616021891</v>
       </c>
       <c r="G32" t="n">
-        <v>82.81681616021891</v>
+        <v>45.13862291919065</v>
       </c>
       <c r="H32" t="n">
         <v>82.81681616021891</v>
@@ -29797,16 +29797,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81681616021891</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>82.81681616021891</v>
       </c>
       <c r="U32" t="n">
-        <v>45.13862291919108</v>
+        <v>82.81681616021891</v>
       </c>
       <c r="V32" t="n">
-        <v>82.81681616021891</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>82.81681616021891</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="K40" t="n">
-        <v>82.81681616021896</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="L40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="M40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="N40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="O40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="P40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="R40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="S40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021871</v>
       </c>
       <c r="V41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="K43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="L43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="M43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="N43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="O43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="P43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.81681616022016</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="R43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="S43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.81681616021882</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="C46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="D46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="E46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="F46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="G46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="H46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="I46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="J46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="K46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="L46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021913</v>
       </c>
       <c r="M46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="N46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="O46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="P46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="R46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="S46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="T46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="U46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="V46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="W46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="X46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.81681616021889</v>
+        <v>82.81681616021888</v>
       </c>
     </row>
   </sheetData>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.614418243507968</v>
+        <v>2.614418243507967</v>
       </c>
       <c r="H17" t="n">
         <v>26.77491083632598</v>
@@ -32233,16 +32233,16 @@
         <v>100.792359332841</v>
       </c>
       <c r="J17" t="n">
-        <v>221.8954803949346</v>
+        <v>221.8954803949345</v>
       </c>
       <c r="K17" t="n">
-        <v>332.5638046426269</v>
+        <v>332.5638046426268</v>
       </c>
       <c r="L17" t="n">
-        <v>412.574806962384</v>
+        <v>412.5748069623839</v>
       </c>
       <c r="M17" t="n">
-        <v>459.0689674003688</v>
+        <v>459.0689674003687</v>
       </c>
       <c r="N17" t="n">
         <v>466.4971832347358</v>
@@ -32260,13 +32260,13 @@
         <v>164.2279499887575</v>
       </c>
       <c r="S17" t="n">
-        <v>59.57605572393788</v>
+        <v>59.57605572393786</v>
       </c>
       <c r="T17" t="n">
-        <v>11.44461586095614</v>
+        <v>11.44461586095613</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2091534594806374</v>
+        <v>0.2091534594806373</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.398837081892024</v>
+        <v>1.398837081892023</v>
       </c>
       <c r="H18" t="n">
-        <v>13.50982129090455</v>
+        <v>13.50982129090454</v>
       </c>
       <c r="I18" t="n">
         <v>48.16171531952801</v>
@@ -32315,19 +32315,19 @@
         <v>132.1594279870004</v>
       </c>
       <c r="K18" t="n">
-        <v>225.881512473766</v>
+        <v>225.8815124737659</v>
       </c>
       <c r="L18" t="n">
         <v>303.7255690309852</v>
       </c>
       <c r="M18" t="n">
-        <v>354.433413249571</v>
+        <v>354.4334132495709</v>
       </c>
       <c r="N18" t="n">
         <v>363.8142110487505</v>
       </c>
       <c r="O18" t="n">
-        <v>332.8189262341957</v>
+        <v>332.8189262341956</v>
       </c>
       <c r="P18" t="n">
         <v>267.1165301377848</v>
@@ -32336,7 +32336,7 @@
         <v>178.560326453445</v>
       </c>
       <c r="R18" t="n">
-        <v>86.85060408448901</v>
+        <v>86.85060408448899</v>
       </c>
       <c r="S18" t="n">
         <v>25.9827852711084</v>
@@ -32345,7 +32345,7 @@
         <v>5.638295080082321</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09202875538763318</v>
+        <v>0.09202875538763315</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>10.42670711860673</v>
       </c>
       <c r="I19" t="n">
-        <v>35.26743062203584</v>
+        <v>35.26743062203583</v>
       </c>
       <c r="J19" t="n">
-        <v>82.91257797689619</v>
+        <v>82.91257797689617</v>
       </c>
       <c r="K19" t="n">
         <v>136.2508353535725</v>
@@ -32403,16 +32403,16 @@
         <v>183.8320151800978</v>
       </c>
       <c r="N19" t="n">
-        <v>179.4609007438723</v>
+        <v>179.4609007438722</v>
       </c>
       <c r="O19" t="n">
         <v>165.7611884254574</v>
       </c>
       <c r="P19" t="n">
-        <v>141.8373328281634</v>
+        <v>141.8373328281633</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.20081724896373</v>
+        <v>98.20081724896372</v>
       </c>
       <c r="R19" t="n">
         <v>52.73056585749369</v>
@@ -32424,7 +32424,7 @@
         <v>5.010789719575826</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06396752833501064</v>
+        <v>0.06396752833501063</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
@@ -34951,7 +34951,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
-        <v>6.598225711743296</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>39.58387696184059</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>40.84957586824825</v>
+        <v>209.946191040322</v>
       </c>
       <c r="K11" t="n">
         <v>436.619366168811</v>
@@ -35416,7 +35416,7 @@
         <v>594.469606542847</v>
       </c>
       <c r="M11" t="n">
-        <v>678.2362676659285</v>
+        <v>355.6454242104831</v>
       </c>
       <c r="N11" t="n">
         <v>674.431044050129</v>
@@ -35428,10 +35428,10 @@
         <v>466.5223238554635</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.4839985480963</v>
+        <v>272.3370588790764</v>
       </c>
       <c r="R11" t="n">
-        <v>14.35883204760782</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.321801320333662</v>
+        <v>131.4128366607425</v>
       </c>
       <c r="K12" t="n">
-        <v>88.04007349940693</v>
+        <v>352.5053105119855</v>
       </c>
       <c r="L12" t="n">
-        <v>165.171189251111</v>
+        <v>379.1904594715594</v>
       </c>
       <c r="M12" t="n">
-        <v>678.0044430775525</v>
+        <v>212.2993793275526</v>
       </c>
       <c r="N12" t="n">
-        <v>371.3429777888529</v>
+        <v>232.4724989654171</v>
       </c>
       <c r="O12" t="n">
         <v>584.0850010664807</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.57136084590672</v>
+        <v>11.57136084590667</v>
       </c>
       <c r="K13" t="n">
         <v>135.9993065133729</v>
       </c>
       <c r="L13" t="n">
-        <v>223.9621479777933</v>
+        <v>223.9621479777932</v>
       </c>
       <c r="M13" t="n">
         <v>245.4338551276217</v>
       </c>
       <c r="N13" t="n">
-        <v>245.6110361087842</v>
+        <v>245.6110361087841</v>
       </c>
       <c r="O13" t="n">
-        <v>212.3642793251804</v>
+        <v>212.3642793251803</v>
       </c>
       <c r="P13" t="n">
-        <v>161.1338550787402</v>
+        <v>161.1338550787401</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.05673698295266</v>
+        <v>34.0567369829526</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>209.946191040322</v>
       </c>
       <c r="K14" t="n">
-        <v>112.4739535976463</v>
+        <v>436.619366168811</v>
       </c>
       <c r="L14" t="n">
-        <v>594.469606542847</v>
+        <v>579.3186392112768</v>
       </c>
       <c r="M14" t="n">
         <v>678.2362676659285</v>
       </c>
       <c r="N14" t="n">
-        <v>661.6267811182398</v>
+        <v>674.431044050129</v>
       </c>
       <c r="O14" t="n">
         <v>591.202031666912</v>
       </c>
       <c r="P14" t="n">
-        <v>466.5223238554635</v>
+        <v>144.7236156839808</v>
       </c>
       <c r="Q14" t="n">
         <v>272.3370588790764</v>
@@ -35726,22 +35726,22 @@
         <v>5.321801320333662</v>
       </c>
       <c r="K15" t="n">
-        <v>276.108234355075</v>
+        <v>352.5053105119855</v>
       </c>
       <c r="L15" t="n">
-        <v>165.171189251111</v>
+        <v>536.0115345545702</v>
       </c>
       <c r="M15" t="n">
         <v>678.0044430775525</v>
       </c>
       <c r="N15" t="n">
-        <v>711.8148733089706</v>
+        <v>339.9770024853939</v>
       </c>
       <c r="O15" t="n">
-        <v>584.0850010664807</v>
+        <v>190.2226817897512</v>
       </c>
       <c r="P15" t="n">
-        <v>133.1421227234545</v>
+        <v>451.6048913633917</v>
       </c>
       <c r="Q15" t="n">
         <v>38.57855236742347</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.57136084590672</v>
+        <v>11.57136084590667</v>
       </c>
       <c r="K16" t="n">
         <v>135.9993065133729</v>
       </c>
       <c r="L16" t="n">
-        <v>223.9621479777933</v>
+        <v>223.9621479777932</v>
       </c>
       <c r="M16" t="n">
         <v>245.4338551276217</v>
       </c>
       <c r="N16" t="n">
-        <v>245.6110361087842</v>
+        <v>245.6110361087841</v>
       </c>
       <c r="O16" t="n">
-        <v>212.3642793251804</v>
+        <v>212.3642793251803</v>
       </c>
       <c r="P16" t="n">
-        <v>161.1338550787402</v>
+        <v>161.1338550787401</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.05673698295266</v>
+        <v>34.0567369829526</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>209.9461910403221</v>
+        <v>209.946191040322</v>
       </c>
       <c r="K17" t="n">
-        <v>421.4683988372391</v>
+        <v>436.619366168811</v>
       </c>
       <c r="L17" t="n">
-        <v>594.4696065428473</v>
+        <v>271.8787630874018</v>
       </c>
       <c r="M17" t="n">
         <v>678.2362676659285</v>
@@ -35899,13 +35899,13 @@
         <v>591.202031666912</v>
       </c>
       <c r="P17" t="n">
-        <v>144.7236156839809</v>
+        <v>466.5223238554635</v>
       </c>
       <c r="Q17" t="n">
         <v>272.3370588790764</v>
       </c>
       <c r="R17" t="n">
-        <v>14.35883204760785</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>131.4128366607425</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5053105119856</v>
+        <v>352.5053105119855</v>
       </c>
       <c r="L18" t="n">
-        <v>165.1711892511111</v>
+        <v>307.3477149982889</v>
       </c>
       <c r="M18" t="n">
-        <v>212.2993793275527</v>
+        <v>678.0044430775525</v>
       </c>
       <c r="N18" t="n">
-        <v>711.8148733089707</v>
+        <v>232.4724989654171</v>
       </c>
       <c r="O18" t="n">
-        <v>318.7618969433752</v>
+        <v>190.2226817897512</v>
       </c>
       <c r="P18" t="n">
         <v>451.6048913633917</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.37021402044229</v>
+        <v>72.37021402044212</v>
       </c>
       <c r="K19" t="n">
-        <v>196.7981596879085</v>
+        <v>196.7981596879083</v>
       </c>
       <c r="L19" t="n">
-        <v>284.7610011523288</v>
+        <v>284.7610011523287</v>
       </c>
       <c r="M19" t="n">
-        <v>306.2327083021573</v>
+        <v>306.2327083021571</v>
       </c>
       <c r="N19" t="n">
-        <v>306.4098892833197</v>
+        <v>306.4098892833196</v>
       </c>
       <c r="O19" t="n">
-        <v>273.163132499716</v>
+        <v>273.1631324997158</v>
       </c>
       <c r="P19" t="n">
-        <v>221.9327082532757</v>
+        <v>221.9327082532756</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.85559015748822</v>
+        <v>94.85559015748805</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,22 +36127,22 @@
         <v>594.469606542847</v>
       </c>
       <c r="M20" t="n">
-        <v>678.2362676659285</v>
+        <v>677.4441323819658</v>
       </c>
       <c r="N20" t="n">
-        <v>337.4813685470742</v>
+        <v>674.431044050129</v>
       </c>
       <c r="O20" t="n">
         <v>591.202031666912</v>
       </c>
       <c r="P20" t="n">
-        <v>466.5223238554635</v>
+        <v>144.7236156839808</v>
       </c>
       <c r="Q20" t="n">
         <v>272.3370588790764</v>
       </c>
       <c r="R20" t="n">
-        <v>14.35883204760782</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>352.5053105119855</v>
       </c>
       <c r="L21" t="n">
-        <v>536.0115345545702</v>
+        <v>379.1904594715594</v>
       </c>
       <c r="M21" t="n">
         <v>212.2993793275526</v>
@@ -36212,7 +36212,7 @@
         <v>232.4724989654171</v>
       </c>
       <c r="O21" t="n">
-        <v>427.2639259834698</v>
+        <v>584.0850010664807</v>
       </c>
       <c r="P21" t="n">
         <v>451.6048913633917</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.37021402044239</v>
+        <v>72.37021402044229</v>
       </c>
       <c r="K22" t="n">
         <v>196.7981596879085</v>
@@ -36294,7 +36294,7 @@
         <v>273.163132499716</v>
       </c>
       <c r="P22" t="n">
-        <v>221.9327082532757</v>
+        <v>221.9327082532756</v>
       </c>
       <c r="Q22" t="n">
         <v>94.85559015748822</v>
@@ -36361,10 +36361,10 @@
         <v>436.619366168811</v>
       </c>
       <c r="L23" t="n">
-        <v>594.469606542847</v>
+        <v>257.5199310397923</v>
       </c>
       <c r="M23" t="n">
-        <v>341.2865921628736</v>
+        <v>678.2362676659285</v>
       </c>
       <c r="N23" t="n">
         <v>674.431044050129</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.37021402044229</v>
+        <v>72.37021402044228</v>
       </c>
       <c r="K25" t="n">
         <v>196.7981596879085</v>
@@ -36534,7 +36534,7 @@
         <v>221.9327082532757</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.85559015748822</v>
+        <v>94.85559015748821</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>272.3370588790764</v>
       </c>
       <c r="R26" t="n">
-        <v>14.35883204760782</v>
+        <v>14.35883204760672</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>352.5053105119855</v>
       </c>
       <c r="L27" t="n">
-        <v>536.0115345545702</v>
+        <v>165.171189251111</v>
       </c>
       <c r="M27" t="n">
-        <v>449.3406235212713</v>
+        <v>659.3013631211139</v>
       </c>
       <c r="N27" t="n">
-        <v>232.4724989654171</v>
+        <v>711.8148733089706</v>
       </c>
       <c r="O27" t="n">
         <v>190.2226817897512</v>
       </c>
       <c r="P27" t="n">
-        <v>451.6048913633917</v>
+        <v>133.1421227234545</v>
       </c>
       <c r="Q27" t="n">
         <v>248.6558401032726</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>50.35392222307276</v>
+        <v>50.35392222307272</v>
       </c>
       <c r="K28" t="n">
-        <v>174.781867890539</v>
+        <v>174.7818678905389</v>
       </c>
       <c r="L28" t="n">
-        <v>262.7447093549593</v>
+        <v>262.7447093549592</v>
       </c>
       <c r="M28" t="n">
         <v>284.2164165047877</v>
@@ -36765,13 +36765,13 @@
         <v>284.3935974859502</v>
       </c>
       <c r="O28" t="n">
-        <v>251.1468407023465</v>
+        <v>251.1468407023464</v>
       </c>
       <c r="P28" t="n">
         <v>199.9164164559062</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.83929836011869</v>
+        <v>72.83929836011865</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>272.3370588790764</v>
       </c>
       <c r="R29" t="n">
-        <v>14.35883204760718</v>
+        <v>14.35883204760782</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>536.0115345545702</v>
       </c>
       <c r="M30" t="n">
-        <v>449.3406235212713</v>
+        <v>212.2993793275526</v>
       </c>
       <c r="N30" t="n">
         <v>232.4724989654171</v>
       </c>
       <c r="O30" t="n">
-        <v>190.2226817897512</v>
+        <v>427.2639259834698</v>
       </c>
       <c r="P30" t="n">
         <v>451.6048913633917</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.35392222307276</v>
+        <v>50.35392222307272</v>
       </c>
       <c r="K31" t="n">
-        <v>174.781867890539</v>
+        <v>174.7818678905389</v>
       </c>
       <c r="L31" t="n">
-        <v>262.7447093549593</v>
+        <v>262.7447093549592</v>
       </c>
       <c r="M31" t="n">
         <v>284.2164165047877</v>
@@ -37002,13 +37002,13 @@
         <v>284.3935974859502</v>
       </c>
       <c r="O31" t="n">
-        <v>251.1468407023465</v>
+        <v>251.1468407023464</v>
       </c>
       <c r="P31" t="n">
         <v>199.9164164559062</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.83929836011869</v>
+        <v>72.83929836011865</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>594.469606542847</v>
       </c>
       <c r="M32" t="n">
-        <v>563.085303367166</v>
+        <v>548.7264713195593</v>
       </c>
       <c r="N32" t="n">
         <v>674.431044050129</v>
@@ -37090,7 +37090,7 @@
         <v>272.3370588790764</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.35883204760782</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>131.4128366607425</v>
+        <v>5.321801320333662</v>
       </c>
       <c r="K33" t="n">
         <v>352.5053105119855</v>
@@ -37154,13 +37154,13 @@
         <v>536.0115345545702</v>
       </c>
       <c r="M33" t="n">
-        <v>449.3406235212711</v>
+        <v>212.2993793275526</v>
       </c>
       <c r="N33" t="n">
         <v>232.4724989654171</v>
       </c>
       <c r="O33" t="n">
-        <v>190.2226817897512</v>
+        <v>553.3549613238785</v>
       </c>
       <c r="P33" t="n">
         <v>451.6048913633917</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.31150619717206</v>
+        <v>209.946191040322</v>
       </c>
       <c r="K35" t="n">
         <v>436.619366168811</v>
@@ -37312,7 +37312,7 @@
         <v>594.469606542847</v>
       </c>
       <c r="M35" t="n">
-        <v>678.2362676659285</v>
+        <v>355.6454242104812</v>
       </c>
       <c r="N35" t="n">
         <v>674.431044050129</v>
@@ -37324,10 +37324,10 @@
         <v>466.5223238554635</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.0220682191717</v>
+        <v>272.3370588790764</v>
       </c>
       <c r="R35" t="n">
-        <v>14.35883204760782</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>536.0115345545702</v>
       </c>
       <c r="M36" t="n">
-        <v>449.3406235212713</v>
+        <v>212.2993793275526</v>
       </c>
       <c r="N36" t="n">
         <v>232.4724989654171</v>
       </c>
       <c r="O36" t="n">
-        <v>190.2226817897512</v>
+        <v>427.2639259834698</v>
       </c>
       <c r="P36" t="n">
         <v>451.6048913633917</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>40.84957586824825</v>
+        <v>209.946191040322</v>
       </c>
       <c r="K38" t="n">
         <v>436.619366168811</v>
@@ -37549,7 +37549,7 @@
         <v>594.469606542847</v>
       </c>
       <c r="M38" t="n">
-        <v>678.2362676659285</v>
+        <v>341.2865921628745</v>
       </c>
       <c r="N38" t="n">
         <v>674.431044050129</v>
@@ -37561,7 +37561,7 @@
         <v>466.5223238554635</v>
       </c>
       <c r="Q38" t="n">
-        <v>104.4839985480963</v>
+        <v>272.3370588790764</v>
       </c>
       <c r="R38" t="n">
         <v>14.35883204760782</v>
@@ -37628,13 +37628,13 @@
         <v>536.0115345545702</v>
       </c>
       <c r="M39" t="n">
-        <v>449.3406235212713</v>
+        <v>212.2993793275526</v>
       </c>
       <c r="N39" t="n">
         <v>232.4724989654171</v>
       </c>
       <c r="O39" t="n">
-        <v>190.2226817897512</v>
+        <v>427.2639259834698</v>
       </c>
       <c r="P39" t="n">
         <v>451.6048913633917</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.37021402044229</v>
+        <v>72.37021402044228</v>
       </c>
       <c r="K40" t="n">
-        <v>196.7981596879086</v>
+        <v>196.7981596879085</v>
       </c>
       <c r="L40" t="n">
         <v>284.7610011523288</v>
@@ -37719,7 +37719,7 @@
         <v>221.9327082532757</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.85559015748822</v>
+        <v>94.85559015748821</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>209.946191040322</v>
+        <v>85.31150619717297</v>
       </c>
       <c r="K41" t="n">
         <v>436.619366168811</v>
@@ -37786,7 +37786,7 @@
         <v>594.469606542847</v>
       </c>
       <c r="M41" t="n">
-        <v>355.6454242104822</v>
+        <v>678.2362676659285</v>
       </c>
       <c r="N41" t="n">
         <v>674.431044050129</v>
@@ -37798,10 +37798,10 @@
         <v>466.5223238554635</v>
       </c>
       <c r="Q41" t="n">
-        <v>272.3370588790764</v>
+        <v>60.0220682191717</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.35883204760782</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>131.4128366607425</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5053105119855</v>
+        <v>88.04007349940693</v>
       </c>
       <c r="L42" t="n">
         <v>536.0115345545702</v>
@@ -37868,16 +37868,16 @@
         <v>212.2993793275526</v>
       </c>
       <c r="N42" t="n">
-        <v>232.4724989654171</v>
+        <v>711.8148733089706</v>
       </c>
       <c r="O42" t="n">
-        <v>427.2639259834698</v>
+        <v>422.4640763883443</v>
       </c>
       <c r="P42" t="n">
         <v>451.6048913633917</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.6558401032726</v>
+        <v>38.57855236742347</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.37021402044222</v>
+        <v>72.37021402044228</v>
       </c>
       <c r="K43" t="n">
-        <v>196.7981596879084</v>
+        <v>196.7981596879085</v>
       </c>
       <c r="L43" t="n">
-        <v>284.7610011523287</v>
+        <v>284.7610011523288</v>
       </c>
       <c r="M43" t="n">
-        <v>306.2327083021572</v>
+        <v>306.2327083021573</v>
       </c>
       <c r="N43" t="n">
         <v>306.4098892833197</v>
       </c>
       <c r="O43" t="n">
-        <v>273.1631324997159</v>
+        <v>273.163132499716</v>
       </c>
       <c r="P43" t="n">
-        <v>221.9327082532756</v>
+        <v>221.9327082532757</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.85559015748949</v>
+        <v>94.85559015748821</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,22 +38023,22 @@
         <v>594.469606542847</v>
       </c>
       <c r="M44" t="n">
-        <v>355.6454242104812</v>
+        <v>678.2362676659285</v>
       </c>
       <c r="N44" t="n">
-        <v>674.431044050129</v>
+        <v>659.2800767185573</v>
       </c>
       <c r="O44" t="n">
         <v>591.202031666912</v>
       </c>
       <c r="P44" t="n">
-        <v>466.5223238554635</v>
+        <v>144.7236156839808</v>
       </c>
       <c r="Q44" t="n">
         <v>272.3370588790764</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.35883204760782</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>131.4128366607425</v>
+        <v>5.321801320333662</v>
       </c>
       <c r="K45" t="n">
         <v>352.5053105119855</v>
@@ -38102,19 +38102,19 @@
         <v>536.0115345545702</v>
       </c>
       <c r="M45" t="n">
-        <v>212.2993793275526</v>
+        <v>678.0044430775525</v>
       </c>
       <c r="N45" t="n">
-        <v>232.4724989654171</v>
+        <v>264.577451848601</v>
       </c>
       <c r="O45" t="n">
-        <v>427.2639259834698</v>
+        <v>584.0850010664807</v>
       </c>
       <c r="P45" t="n">
-        <v>451.6048913633917</v>
+        <v>133.1421227234545</v>
       </c>
       <c r="Q45" t="n">
-        <v>248.6558401032726</v>
+        <v>38.57855236742347</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.37021402044229</v>
+        <v>72.37021402044228</v>
       </c>
       <c r="K46" t="n">
         <v>196.7981596879085</v>
       </c>
       <c r="L46" t="n">
-        <v>284.7610011523288</v>
+        <v>284.7610011523291</v>
       </c>
       <c r="M46" t="n">
         <v>306.2327083021573</v>
@@ -38193,7 +38193,7 @@
         <v>221.9327082532757</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.85559015748822</v>
+        <v>94.85559015748821</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
